--- a/data/infra_vulnerability_data.xlsx
+++ b/data/infra_vulnerability_data.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="flooding_curves" sheetId="2" r:id="rId1"/>
-    <sheet name="correction_without_reference_ye" sheetId="3" r:id="rId2"/>
+    <sheet name="correction_without_inflation" sheetId="3" r:id="rId2"/>
     <sheet name="correction_reference_year" sheetId="5" r:id="rId3"/>
     <sheet name="power_points" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="113">
   <si>
     <t>cable</t>
   </si>
@@ -388,6 +388,9 @@
   </si>
   <si>
     <t>STEP 2</t>
+  </si>
+  <si>
+    <t>Misschien toch aanpassen naar zelfde vulnerability curve for lines --&gt; in FEMA zeggen ze wel iets over cables (p360)</t>
   </si>
 </sst>
 </file>
@@ -1113,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ68"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,7 +1611,7 @@
         <v>148865.17338917882</v>
       </c>
       <c r="AA4" s="14">
-        <v>165200</v>
+        <v>658.46820000000002</v>
       </c>
       <c r="AB4" s="14">
         <v>658.46820000000002</v>
@@ -1737,7 +1740,7 @@
         <v>90112.090429284988</v>
       </c>
       <c r="AA5" s="14">
-        <v>123900</v>
+        <v>493.85115000000002</v>
       </c>
       <c r="AB5" s="14">
         <v>493.85115000000002</v>
@@ -1866,7 +1869,7 @@
         <v>270336.27128785499</v>
       </c>
       <c r="AA6" s="14">
-        <v>206500</v>
+        <v>823.08525000000009</v>
       </c>
       <c r="AB6" s="14">
         <v>823.08525000000009</v>
@@ -1918,6 +1921,9 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
+        <v>112</v>
+      </c>
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
       <c r="V7" s="20"/>
@@ -4889,8 +4895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6236,11 +6242,11 @@
         <v>601.61101894314208</v>
       </c>
       <c r="E20" s="14">
-        <f>E3/$D$12</f>
+        <f t="shared" ref="E20:F22" si="1">E3/$D$12</f>
         <v>409240349.46149552</v>
       </c>
       <c r="F20" s="14">
-        <f>F3/$D$12</f>
+        <f t="shared" si="1"/>
         <v>29762934.506290585</v>
       </c>
       <c r="G20" s="14">
@@ -6288,23 +6294,23 @@
         <v>900</v>
       </c>
       <c r="S20" s="14">
-        <f t="shared" ref="S20:W20" si="1">S3*1000000/1000</f>
+        <f t="shared" ref="S20:W20" si="2">S3*1000000/1000</f>
         <v>600</v>
       </c>
       <c r="T20" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="U20" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>225</v>
       </c>
       <c r="V20" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>175</v>
       </c>
       <c r="W20" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="X20" s="14">
@@ -6324,67 +6330,67 @@
         <v>639</v>
       </c>
       <c r="AB20" s="14">
-        <f t="shared" ref="AB20:AQ20" si="2">AB3</f>
+        <f t="shared" ref="AB20:AQ20" si="3">AB3</f>
         <v>639</v>
       </c>
       <c r="AC20" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>639</v>
       </c>
       <c r="AD20" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>639</v>
       </c>
       <c r="AE20" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>639</v>
       </c>
       <c r="AF20" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>639</v>
       </c>
       <c r="AG20" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>639</v>
       </c>
       <c r="AH20" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>639</v>
       </c>
       <c r="AI20" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>639</v>
       </c>
       <c r="AJ20" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>639</v>
       </c>
       <c r="AK20" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>639</v>
       </c>
       <c r="AL20" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>639</v>
       </c>
       <c r="AM20" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>639</v>
       </c>
       <c r="AN20" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>639</v>
       </c>
       <c r="AO20" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>639</v>
       </c>
       <c r="AP20" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>639</v>
       </c>
       <c r="AQ20" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>639</v>
       </c>
     </row>
@@ -6393,31 +6399,31 @@
         <v>30</v>
       </c>
       <c r="B21" s="14">
-        <f t="shared" ref="B21:D21" si="3">(B4/$D$10)/$D$13</f>
+        <f t="shared" ref="B21:D21" si="4">(B4/$D$10)/$D$13</f>
         <v>544.05763475197909</v>
       </c>
       <c r="C21" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>160.74430117672111</v>
       </c>
       <c r="D21" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>74.189677466178964</v>
       </c>
       <c r="E21" s="14">
-        <f>E4/$D$12</f>
+        <f t="shared" si="1"/>
         <v>111611004.39858969</v>
       </c>
       <c r="F21" s="14">
-        <f>F4/$D$12</f>
+        <f t="shared" si="1"/>
         <v>11161100.439858967</v>
       </c>
       <c r="G21" s="14">
-        <f t="shared" ref="G21:H21" si="4">G4/$D$16</f>
+        <f t="shared" ref="G21:H21" si="5">G4/$D$16</f>
         <v>37549.239520649426</v>
       </c>
       <c r="H21" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17907.472102454787</v>
       </c>
       <c r="I21" s="14">
@@ -6445,7 +6451,7 @@
         <v>407.25</v>
       </c>
       <c r="P21" s="14">
-        <f t="shared" ref="P21:P22" si="5">P4/$D$12</f>
+        <f t="shared" ref="P21:P22" si="6">P4/$D$12</f>
         <v>66966602.639153808</v>
       </c>
       <c r="Q21" s="14">
@@ -6457,23 +6463,23 @@
         <v>675</v>
       </c>
       <c r="S21" s="14">
-        <f t="shared" ref="S21:W21" si="6">S20*0.75</f>
+        <f t="shared" ref="S21:W21" si="7">S20*0.75</f>
         <v>450</v>
       </c>
       <c r="T21" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>187.5</v>
       </c>
       <c r="U21" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>168.75</v>
       </c>
       <c r="V21" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>131.25</v>
       </c>
       <c r="W21" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>56.25</v>
       </c>
       <c r="X21" s="14">
@@ -6493,67 +6499,67 @@
         <v>479.25</v>
       </c>
       <c r="AB21" s="14">
-        <f t="shared" ref="AB21:AQ21" si="7">AB20*0.75</f>
+        <f t="shared" ref="AB21:AQ21" si="8">AB20*0.75</f>
         <v>479.25</v>
       </c>
       <c r="AC21" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>479.25</v>
       </c>
       <c r="AD21" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>479.25</v>
       </c>
       <c r="AE21" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>479.25</v>
       </c>
       <c r="AF21" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>479.25</v>
       </c>
       <c r="AG21" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>479.25</v>
       </c>
       <c r="AH21" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>479.25</v>
       </c>
       <c r="AI21" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>479.25</v>
       </c>
       <c r="AJ21" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>479.25</v>
       </c>
       <c r="AK21" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>479.25</v>
       </c>
       <c r="AL21" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>479.25</v>
       </c>
       <c r="AM21" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>479.25</v>
       </c>
       <c r="AN21" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>479.25</v>
       </c>
       <c r="AO21" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>479.25</v>
       </c>
       <c r="AP21" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>479.25</v>
       </c>
       <c r="AQ21" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>479.25</v>
       </c>
       <c r="AR21" s="18"/>
@@ -6566,31 +6572,31 @@
         <v>94</v>
       </c>
       <c r="B22" s="14">
-        <f t="shared" ref="B22:D22" si="8">(B5/$D$10)/$D$13</f>
+        <f t="shared" ref="B22:D22" si="9">(B5/$D$10)/$D$13</f>
         <v>11375.750544814107</v>
       </c>
       <c r="C22" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2472.9892488726323</v>
       </c>
       <c r="D22" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1127.6830974859204</v>
       </c>
       <c r="E22" s="14">
-        <f>E5/$D$12</f>
+        <f t="shared" si="1"/>
         <v>558055021.99294841</v>
       </c>
       <c r="F22" s="14">
-        <f>F5/$D$12</f>
+        <f t="shared" si="1"/>
         <v>55805502.199294843</v>
       </c>
       <c r="G22" s="14">
-        <f t="shared" ref="G22:H22" si="9">G5/$D$16</f>
+        <f t="shared" ref="G22:H22" si="10">G5/$D$16</f>
         <v>725654.60087097215</v>
       </c>
       <c r="H22" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>59384.233709180466</v>
       </c>
       <c r="I22" s="14">
@@ -6618,7 +6624,7 @@
         <v>678.75</v>
       </c>
       <c r="P22" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>803599231.6698457</v>
       </c>
       <c r="Q22" s="14">
@@ -6630,23 +6636,23 @@
         <v>1125</v>
       </c>
       <c r="S22" s="14">
-        <f t="shared" ref="S22:W22" si="10">S20*1.25</f>
+        <f t="shared" ref="S22:W22" si="11">S20*1.25</f>
         <v>750</v>
       </c>
       <c r="T22" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>312.5</v>
       </c>
       <c r="U22" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>281.25</v>
       </c>
       <c r="V22" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>218.75</v>
       </c>
       <c r="W22" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>93.75</v>
       </c>
       <c r="X22" s="14">
@@ -6666,67 +6672,67 @@
         <v>798.75</v>
       </c>
       <c r="AB22" s="14">
-        <f t="shared" ref="AB22:AQ22" si="11">AB20*1.25</f>
+        <f t="shared" ref="AB22:AQ22" si="12">AB20*1.25</f>
         <v>798.75</v>
       </c>
       <c r="AC22" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>798.75</v>
       </c>
       <c r="AD22" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>798.75</v>
       </c>
       <c r="AE22" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>798.75</v>
       </c>
       <c r="AF22" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>798.75</v>
       </c>
       <c r="AG22" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>798.75</v>
       </c>
       <c r="AH22" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>798.75</v>
       </c>
       <c r="AI22" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>798.75</v>
       </c>
       <c r="AJ22" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>798.75</v>
       </c>
       <c r="AK22" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>798.75</v>
       </c>
       <c r="AL22" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>798.75</v>
       </c>
       <c r="AM22" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>798.75</v>
       </c>
       <c r="AN22" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>798.75</v>
       </c>
       <c r="AO22" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>798.75</v>
       </c>
       <c r="AP22" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>798.75</v>
       </c>
       <c r="AQ22" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>798.75</v>
       </c>
       <c r="AR22" s="18"/>
@@ -6764,8 +6770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView topLeftCell="M10" workbookViewId="0">
+      <selection activeCell="AA29" sqref="AA29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7979,27 +7985,27 @@
         <v>843342.20000000007</v>
       </c>
       <c r="R16" s="73">
-        <f>R3</f>
+        <f t="shared" ref="R16:W18" si="1">R3</f>
         <v>0.9</v>
       </c>
       <c r="S16" s="73">
-        <f>S3</f>
+        <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="T16" s="73">
-        <f>T3</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="U16" s="73">
-        <f>U3</f>
+        <f t="shared" si="1"/>
         <v>0.22500000000000001</v>
       </c>
       <c r="V16" s="73">
-        <f>V3</f>
+        <f t="shared" si="1"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="W16" s="73">
-        <f>W3</f>
+        <f t="shared" si="1"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="X16" s="72">
@@ -8019,67 +8025,67 @@
         <v>658.46820000000002</v>
       </c>
       <c r="AB16" s="72">
-        <f t="shared" ref="AB16:AQ16" si="1">AB3*((AB15/100)+1)</f>
+        <f t="shared" ref="AB16:AQ16" si="2">AB3*((AB15/100)+1)</f>
         <v>658.46820000000002</v>
       </c>
       <c r="AC16" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>658.46820000000002</v>
       </c>
       <c r="AD16" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>658.46820000000002</v>
       </c>
       <c r="AE16" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>658.46820000000002</v>
       </c>
       <c r="AF16" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>658.46820000000002</v>
       </c>
       <c r="AG16" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>658.46820000000002</v>
       </c>
       <c r="AH16" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>658.46820000000002</v>
       </c>
       <c r="AI16" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>658.46820000000002</v>
       </c>
       <c r="AJ16" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>658.46820000000002</v>
       </c>
       <c r="AK16" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>658.46820000000002</v>
       </c>
       <c r="AL16" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>658.46820000000002</v>
       </c>
       <c r="AM16" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>658.46820000000002</v>
       </c>
       <c r="AN16" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>658.46820000000002</v>
       </c>
       <c r="AO16" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>658.46820000000002</v>
       </c>
       <c r="AP16" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>658.46820000000002</v>
       </c>
       <c r="AQ16" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>658.46820000000002</v>
       </c>
     </row>
@@ -8144,27 +8150,27 @@
         <v>n/a</v>
       </c>
       <c r="R17" s="73" t="str">
-        <f>R4</f>
+        <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
       <c r="S17" s="73" t="str">
-        <f>S4</f>
+        <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
       <c r="T17" s="73" t="str">
-        <f>T4</f>
+        <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
       <c r="U17" s="73" t="str">
-        <f>U4</f>
+        <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
       <c r="V17" s="73" t="str">
-        <f>V4</f>
+        <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
       <c r="W17" s="73" t="str">
-        <f>W4</f>
+        <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
       <c r="X17" s="73" t="str">
@@ -8290,27 +8296,27 @@
         <v>n/a</v>
       </c>
       <c r="R18" s="73" t="str">
-        <f>R5</f>
+        <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
       <c r="S18" s="73" t="str">
-        <f>S5</f>
+        <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
       <c r="T18" s="73" t="str">
-        <f>T5</f>
+        <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
       <c r="U18" s="73" t="str">
-        <f>U5</f>
+        <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
       <c r="V18" s="73" t="str">
-        <f>V5</f>
+        <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
       <c r="W18" s="73" t="str">
-        <f>W5</f>
+        <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
       <c r="X18" s="73" t="str">
@@ -8588,11 +8594,11 @@
         <v>5343.1358802289315</v>
       </c>
       <c r="C32" s="80">
-        <f t="shared" ref="C32:D32" si="2">(C16/$E$26)/$E$28</f>
+        <f t="shared" ref="C32:D32" si="3">(C16/$E$26)/$E$28</f>
         <v>1442.3968280514925</v>
       </c>
       <c r="D32" s="80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>800.94936103904399</v>
       </c>
       <c r="E32" s="80">
@@ -8600,31 +8606,31 @@
         <v>442420326.64431292</v>
       </c>
       <c r="F32" s="80">
-        <f t="shared" ref="F32:L32" si="3">F16/$E$28</f>
+        <f t="shared" ref="F32:L32" si="4">F16/$E$28</f>
         <v>32176023.755950026</v>
       </c>
       <c r="G32" s="80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>201757.75136692534</v>
       </c>
       <c r="H32" s="80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35565.727007825037</v>
       </c>
       <c r="I32" s="80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>965280.7126785008</v>
       </c>
       <c r="J32" s="80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>482640.3563392504</v>
       </c>
       <c r="K32" s="80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1117312.4249253648</v>
       </c>
       <c r="L32" s="80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>197078145.50519392</v>
       </c>
       <c r="N32" s="72">
@@ -8648,23 +8654,23 @@
         <v>900</v>
       </c>
       <c r="S32" s="80">
-        <f t="shared" ref="S32:W32" si="4">S16*1000000/1000</f>
+        <f t="shared" ref="S32:W32" si="5">S16*1000000/1000</f>
         <v>600</v>
       </c>
       <c r="T32" s="80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>250</v>
       </c>
       <c r="U32" s="80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>225</v>
       </c>
       <c r="V32" s="80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>175</v>
       </c>
       <c r="W32" s="80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="X32" s="80">
@@ -8680,71 +8686,71 @@
         <v>148865.17338917882</v>
       </c>
       <c r="AA32" s="80">
-        <f>Z16</f>
-        <v>165200</v>
+        <f>AA16</f>
+        <v>658.46820000000002</v>
       </c>
       <c r="AB32" s="80">
-        <f t="shared" ref="AB32:AQ32" si="5">AA16</f>
+        <f t="shared" ref="AA32:AQ32" si="6">AA16</f>
         <v>658.46820000000002</v>
       </c>
       <c r="AC32" s="80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>658.46820000000002</v>
       </c>
       <c r="AD32" s="80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>658.46820000000002</v>
       </c>
       <c r="AE32" s="80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>658.46820000000002</v>
       </c>
       <c r="AF32" s="80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>658.46820000000002</v>
       </c>
       <c r="AG32" s="80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>658.46820000000002</v>
       </c>
       <c r="AH32" s="80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>658.46820000000002</v>
       </c>
       <c r="AI32" s="80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>658.46820000000002</v>
       </c>
       <c r="AJ32" s="80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>658.46820000000002</v>
       </c>
       <c r="AK32" s="80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>658.46820000000002</v>
       </c>
       <c r="AL32" s="80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>658.46820000000002</v>
       </c>
       <c r="AM32" s="80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>658.46820000000002</v>
       </c>
       <c r="AN32" s="80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>658.46820000000002</v>
       </c>
       <c r="AO32" s="80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>658.46820000000002</v>
       </c>
       <c r="AP32" s="80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>658.46820000000002</v>
       </c>
       <c r="AQ32" s="80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>658.46820000000002</v>
       </c>
     </row>
@@ -8753,31 +8759,31 @@
         <v>30</v>
       </c>
       <c r="B33" s="80">
-        <f t="shared" ref="B33:D34" si="6">(B17/$E$26)/$E$28</f>
+        <f t="shared" ref="B33:D34" si="7">(B17/$E$26)/$E$28</f>
         <v>724.32618619339962</v>
       </c>
       <c r="C33" s="80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>214.00546410259537</v>
       </c>
       <c r="D33" s="80">
-        <f t="shared" si="6"/>
+        <f>(D17/$E$26)/$E$28</f>
         <v>98.771752662736318</v>
       </c>
       <c r="E33" s="80">
-        <f t="shared" ref="E33:L34" si="7">E17/$E$28</f>
+        <f t="shared" ref="E33:L34" si="8">E17/$E$28</f>
         <v>120660089.0848126</v>
       </c>
       <c r="F33" s="80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12066008.908481261</v>
       </c>
       <c r="G33" s="80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>35488.851782732541</v>
       </c>
       <c r="H33" s="80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16924.860033395544</v>
       </c>
       <c r="I33" s="80">
@@ -8789,11 +8795,11 @@
         <v>361980.26725443779</v>
       </c>
       <c r="K33" s="80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>36198.026725443779</v>
       </c>
       <c r="L33" s="80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>36198026.72544378</v>
       </c>
       <c r="N33" s="72">
@@ -8805,7 +8811,7 @@
         <v>419.65755000000001</v>
       </c>
       <c r="P33" s="80">
-        <f t="shared" ref="P33:P34" si="8">P17/$E$28</f>
+        <f t="shared" ref="P33:P34" si="9">P17/$E$28</f>
         <v>72396053.450887561</v>
       </c>
       <c r="Q33" s="80">
@@ -8817,23 +8823,23 @@
         <v>675</v>
       </c>
       <c r="S33" s="80">
-        <f t="shared" ref="S33:W33" si="9">S32*0.75</f>
+        <f t="shared" ref="S33:W33" si="10">S32*0.75</f>
         <v>450</v>
       </c>
       <c r="T33" s="80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>187.5</v>
       </c>
       <c r="U33" s="80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>168.75</v>
       </c>
       <c r="V33" s="80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>131.25</v>
       </c>
       <c r="W33" s="80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>56.25</v>
       </c>
       <c r="X33" s="80">
@@ -8849,71 +8855,71 @@
         <v>90112.090429284988</v>
       </c>
       <c r="AA33" s="80">
-        <f>AA32*0.75</f>
-        <v>123900</v>
+        <f t="shared" ref="AA33" si="11">AA32*0.75</f>
+        <v>493.85115000000002</v>
       </c>
       <c r="AB33" s="80">
-        <f t="shared" ref="AB33:AQ33" si="10">AB32*0.75</f>
+        <f t="shared" ref="AB33:AQ33" si="12">AB32*0.75</f>
         <v>493.85115000000002</v>
       </c>
       <c r="AC33" s="80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>493.85115000000002</v>
       </c>
       <c r="AD33" s="80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>493.85115000000002</v>
       </c>
       <c r="AE33" s="80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>493.85115000000002</v>
       </c>
       <c r="AF33" s="80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>493.85115000000002</v>
       </c>
       <c r="AG33" s="80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>493.85115000000002</v>
       </c>
       <c r="AH33" s="80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>493.85115000000002</v>
       </c>
       <c r="AI33" s="80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>493.85115000000002</v>
       </c>
       <c r="AJ33" s="80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>493.85115000000002</v>
       </c>
       <c r="AK33" s="80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>493.85115000000002</v>
       </c>
       <c r="AL33" s="80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>493.85115000000002</v>
       </c>
       <c r="AM33" s="80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>493.85115000000002</v>
       </c>
       <c r="AN33" s="80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>493.85115000000002</v>
       </c>
       <c r="AO33" s="80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>493.85115000000002</v>
       </c>
       <c r="AP33" s="80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>493.85115000000002</v>
       </c>
       <c r="AQ33" s="80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>493.85115000000002</v>
       </c>
     </row>
@@ -8922,31 +8928,31 @@
         <v>94</v>
       </c>
       <c r="B34" s="80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15145.002074952903</v>
       </c>
       <c r="C34" s="80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3292.391755424544</v>
       </c>
       <c r="D34" s="80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1501.330640473592</v>
       </c>
       <c r="E34" s="80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>603300445.42406297</v>
       </c>
       <c r="F34" s="80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>60330044.542406298</v>
       </c>
       <c r="G34" s="80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>685836.75473922014</v>
       </c>
       <c r="H34" s="80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>56125.724388566938</v>
       </c>
       <c r="I34" s="80">
@@ -8958,11 +8964,11 @@
         <v>603300.44542406301</v>
       </c>
       <c r="K34" s="80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1809901.3362721889</v>
       </c>
       <c r="L34" s="80">
-        <f t="shared" si="7"/>
+        <f>L18/$E$28</f>
         <v>434376320.70532537</v>
       </c>
       <c r="N34" s="72">
@@ -8974,7 +8980,7 @@
         <v>699.42925000000002</v>
       </c>
       <c r="P34" s="80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>868752641.41065073</v>
       </c>
       <c r="Q34" s="80">
@@ -8986,23 +8992,23 @@
         <v>1125</v>
       </c>
       <c r="S34" s="80">
-        <f t="shared" ref="S34:W34" si="11">S32*1.25</f>
+        <f t="shared" ref="S34:W34" si="13">S32*1.25</f>
         <v>750</v>
       </c>
       <c r="T34" s="80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>312.5</v>
       </c>
       <c r="U34" s="80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>281.25</v>
       </c>
       <c r="V34" s="80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>218.75</v>
       </c>
       <c r="W34" s="80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>93.75</v>
       </c>
       <c r="X34" s="80">
@@ -9018,71 +9024,71 @@
         <v>270336.27128785499</v>
       </c>
       <c r="AA34" s="80">
-        <f>AA32*1.25</f>
-        <v>206500</v>
+        <f t="shared" ref="AA34" si="14">AA32*1.25</f>
+        <v>823.08525000000009</v>
       </c>
       <c r="AB34" s="80">
-        <f t="shared" ref="AB34:AQ34" si="12">AB32*1.25</f>
+        <f t="shared" ref="AB34:AQ34" si="15">AB32*1.25</f>
         <v>823.08525000000009</v>
       </c>
       <c r="AC34" s="80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>823.08525000000009</v>
       </c>
       <c r="AD34" s="80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>823.08525000000009</v>
       </c>
       <c r="AE34" s="80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>823.08525000000009</v>
       </c>
       <c r="AF34" s="80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>823.08525000000009</v>
       </c>
       <c r="AG34" s="80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>823.08525000000009</v>
       </c>
       <c r="AH34" s="80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>823.08525000000009</v>
       </c>
       <c r="AI34" s="80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>823.08525000000009</v>
       </c>
       <c r="AJ34" s="80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>823.08525000000009</v>
       </c>
       <c r="AK34" s="80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>823.08525000000009</v>
       </c>
       <c r="AL34" s="80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>823.08525000000009</v>
       </c>
       <c r="AM34" s="80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>823.08525000000009</v>
       </c>
       <c r="AN34" s="80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>823.08525000000009</v>
       </c>
       <c r="AO34" s="80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>823.08525000000009</v>
       </c>
       <c r="AP34" s="80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>823.08525000000009</v>
       </c>
       <c r="AQ34" s="80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>823.08525000000009</v>
       </c>
     </row>
@@ -9099,8 +9105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/infra_vulnerability_data.xlsx
+++ b/data/infra_vulnerability_data.xlsx
@@ -1117,7 +1117,7 @@
   <dimension ref="A1:AQ68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2118,6 +2118,7 @@
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
       <c r="Q11" s="24">
+        <f>11700/702200</f>
         <v>1.6661919681002564E-2</v>
       </c>
       <c r="R11" s="16"/>
@@ -2175,8 +2176,8 @@
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
       <c r="Q12" s="24">
-        <f>135550/Q4</f>
-        <v>16.072953541278974</v>
+        <f>135550/702200</f>
+        <v>0.19303617203076046</v>
       </c>
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
@@ -8690,7 +8691,7 @@
         <v>658.46820000000002</v>
       </c>
       <c r="AB32" s="80">
-        <f t="shared" ref="AA32:AQ32" si="6">AA16</f>
+        <f t="shared" ref="AB32:AQ32" si="6">AA16</f>
         <v>658.46820000000002</v>
       </c>
       <c r="AC32" s="80">

--- a/data/infra_vulnerability_data.xlsx
+++ b/data/infra_vulnerability_data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -16,6 +16,8 @@
     <sheet name="correction_without_inflation" sheetId="3" r:id="rId2"/>
     <sheet name="correction_reference_year" sheetId="5" r:id="rId3"/>
     <sheet name="power_points" sheetId="4" r:id="rId4"/>
+    <sheet name="Waste" sheetId="6" r:id="rId5"/>
+    <sheet name="Transport" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +34,7 @@
     <author>Nirandjan, S.</author>
   </authors>
   <commentList>
-    <comment ref="Z15" authorId="0" shapeId="0">
+    <comment ref="AB15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,8 +53,69 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Nirandjan, S.</author>
+  </authors>
+  <commentList>
+    <comment ref="A9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nirandjan, S.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+3000m * kosten per m slaat op kosten per 3000 
+m2??
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nirandjan, S.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Break down of costs can be found in ETSAP 2011
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="179">
   <si>
     <t>cable</t>
   </si>
@@ -391,6 +454,204 @@
   </si>
   <si>
     <t>Misschien toch aanpassen naar zelfde vulnerability curve for lines --&gt; in FEMA zeggen ze wel iets over cables (p360)</t>
+  </si>
+  <si>
+    <t>Tebodin, 1998. Waste systems</t>
+  </si>
+  <si>
+    <t>gulden/ha</t>
+  </si>
+  <si>
+    <t>euro/ha</t>
+  </si>
+  <si>
+    <t>inundatie</t>
+  </si>
+  <si>
+    <t>Huizinga et al., 2017</t>
+  </si>
+  <si>
+    <t>Damage factor</t>
+  </si>
+  <si>
+    <t>Carruthers, 2013</t>
+  </si>
+  <si>
+    <t>Reference year</t>
+  </si>
+  <si>
+    <t>Railway single track, 25t axle load, diesel</t>
+  </si>
+  <si>
+    <t>Railway single track, 25t axle load, electrified</t>
+  </si>
+  <si>
+    <t>usd/km</t>
+  </si>
+  <si>
+    <t>Railway signalling</t>
+  </si>
+  <si>
+    <t>Airport terminal</t>
+  </si>
+  <si>
+    <t>usd/m2</t>
+  </si>
+  <si>
+    <t>usd/m</t>
+  </si>
+  <si>
+    <t>Airport runway, 3000m</t>
+  </si>
+  <si>
+    <t>Inflation rate</t>
+  </si>
+  <si>
+    <t>unit correction</t>
+  </si>
+  <si>
+    <t>correction for reference year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">airport runway </t>
+  </si>
+  <si>
+    <t>euro/3000m2</t>
+  </si>
+  <si>
+    <t>Overview of unit costs for new infrastructure</t>
+  </si>
+  <si>
+    <t>Overview of unit costs for upgrading infrastructure</t>
+  </si>
+  <si>
+    <t>Railway axle load to 25 tons</t>
+  </si>
+  <si>
+    <t>Non-electrified to electrified railway</t>
+  </si>
+  <si>
+    <t>Single track to double track diesel</t>
+  </si>
+  <si>
+    <t>1,524 paved runway to 3,000 m runway</t>
+  </si>
+  <si>
+    <t>1,000 paved runway to 1,524 m runway</t>
+  </si>
+  <si>
+    <t>Gravel runway to paved runway</t>
+  </si>
+  <si>
+    <t>usd/per linear m</t>
+  </si>
+  <si>
+    <t>usd/runway</t>
+  </si>
+  <si>
+    <t>euro/runway</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>terminal</t>
+  </si>
+  <si>
+    <t>runway</t>
+  </si>
+  <si>
+    <t>USD/m2</t>
+  </si>
+  <si>
+    <t>Total construction costs terminal</t>
+  </si>
+  <si>
+    <t>ETSAP, 2011</t>
+  </si>
+  <si>
+    <t>Total cost of runway construction by runway type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General aviation </t>
+  </si>
+  <si>
+    <t>Reliever</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>typical length (ft)</t>
+  </si>
+  <si>
+    <t>typical width (ft)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concrete </t>
+  </si>
+  <si>
+    <t>Asphalt</t>
+  </si>
+  <si>
+    <t>reference year</t>
+  </si>
+  <si>
+    <t>inflation rate</t>
+  </si>
+  <si>
+    <t>typical length (m)</t>
+  </si>
+  <si>
+    <t>typical width (m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 ft = </t>
+  </si>
+  <si>
+    <t>Concrete (USD)</t>
+  </si>
+  <si>
+    <t>Asphalt (USD)</t>
+  </si>
+  <si>
+    <t>surface (m2)</t>
+  </si>
+  <si>
+    <t>correction for reference year + to euros</t>
+  </si>
+  <si>
+    <t>costs per unit</t>
+  </si>
+  <si>
+    <t>see 'transport tab'</t>
+  </si>
+  <si>
+    <t>STEP 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjust construction costs </t>
+  </si>
+  <si>
+    <t>factor * construction costs = rehabilitation costs</t>
+  </si>
+  <si>
+    <t>factor</t>
+  </si>
+  <si>
+    <t>construction costs?</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no - replacement costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes - construction costs for ways were used </t>
+  </si>
+  <si>
+    <t>no - Huizinga already adjusted for this (+ also adjusted for depreciated value)</t>
   </si>
 </sst>
 </file>
@@ -404,7 +665,7 @@
     <numFmt numFmtId="167" formatCode="#,##0.000"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -474,8 +735,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -524,8 +798,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -732,6 +1012,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -739,7 +1049,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -808,7 +1118,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -831,6 +1140,22 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="1"/>
@@ -849,6 +1174,1117 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Waste fragility</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> curve</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tebodin, 1998</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Waste!$B$6:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Waste!$A$6:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-121E-4183-9F18-B6934570C29E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Huizinga et al., 2017</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Waste!$K$6:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2971480219894268</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47979055854907787</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60328578958373713</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69434584412800904</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82026548371148122</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92286192938836609</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9870654926044935</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Waste!$A$6:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-121E-4183-9F18-B6934570C29E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="16514975"/>
+        <c:axId val="16514559"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="16514975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="16514559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="16514559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="16514975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1114,10 +2550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ68"/>
+  <dimension ref="A1:AS68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,12 +2577,13 @@
     <col min="20" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.42578125" style="18" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14" bestFit="1" customWidth="1"/>
-    <col min="28" max="43" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="11.7109375" style="82" customWidth="1"/>
+    <col min="27" max="27" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14" bestFit="1" customWidth="1"/>
+    <col min="30" max="45" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>25</v>
       </c>
@@ -1219,65 +2656,71 @@
       <c r="X1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AO1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AP1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="AQ1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AP1" s="7" t="s">
+      <c r="AR1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AQ1" s="7" t="s">
+      <c r="AS1" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:43" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>34</v>
       </c>
@@ -1347,10 +2790,10 @@
       <c r="X2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="Y2" s="18" t="s">
+      <c r="Y2" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="Z2" s="82" t="s">
         <v>35</v>
       </c>
       <c r="AA2" s="18" t="s">
@@ -1404,8 +2847,14 @@
       <c r="AQ2" s="18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS2" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>27</v>
       </c>
@@ -1475,25 +2924,25 @@
       <c r="X3" t="s">
         <v>43</v>
       </c>
-      <c r="Y3" s="18" t="s">
+      <c r="Y3" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z3" s="82" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA3" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="Z3" s="18" t="s">
+      <c r="AB3" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="AA3" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB3" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC3" t="s">
+      <c r="AC3" s="18" t="s">
         <v>43</v>
       </c>
       <c r="AD3" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="AE3" s="18" t="s">
+      <c r="AE3" t="s">
         <v>43</v>
       </c>
       <c r="AF3" s="18" t="s">
@@ -1532,395 +2981,560 @@
       <c r="AQ3" s="18" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>29</v>
+      <c r="AR3" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS3" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="str">
+        <f>correction_reference_year!A47</f>
+        <v>MaxDam</v>
       </c>
       <c r="B4" s="14">
-        <v>5343.1358802289315</v>
+        <f>correction_reference_year!B47</f>
+        <v>3205.8815281373586</v>
       </c>
       <c r="C4" s="14">
-        <v>1442.3968280514925</v>
+        <f>correction_reference_year!C47</f>
+        <v>865.43809683089546</v>
       </c>
       <c r="D4" s="14">
-        <v>800.94936103904399</v>
-      </c>
-      <c r="E4" s="58">
+        <f>correction_reference_year!D47</f>
+        <v>480.56961662342638</v>
+      </c>
+      <c r="E4" s="14">
+        <f>correction_reference_year!E47</f>
         <v>442420326.64431292</v>
       </c>
-      <c r="F4" s="58">
+      <c r="F4" s="14">
+        <f>correction_reference_year!F47</f>
         <v>32176023.755950026</v>
       </c>
       <c r="G4" s="14">
-        <v>201757.75136692534</v>
+        <f>correction_reference_year!G47</f>
+        <v>121054.65082015519</v>
       </c>
       <c r="H4" s="14">
-        <v>35565.727007825037</v>
+        <f>correction_reference_year!H47</f>
+        <v>21339.436204695023</v>
       </c>
       <c r="I4" s="14">
+        <f>correction_reference_year!I47</f>
         <v>965280.7126785008</v>
       </c>
       <c r="J4" s="14">
+        <f>correction_reference_year!J47</f>
         <v>482640.3563392504</v>
       </c>
       <c r="K4" s="14">
+        <f>correction_reference_year!K47</f>
         <v>1117312.4249253648</v>
       </c>
-      <c r="L4" s="58">
+      <c r="L4" s="14">
+        <f>correction_reference_year!L47</f>
         <v>197078145.50519392</v>
       </c>
-      <c r="M4" s="14"/>
+      <c r="M4" s="14">
+        <f>correction_reference_year!M47</f>
+        <v>0</v>
+      </c>
       <c r="N4" s="14">
+        <f>correction_reference_year!N47</f>
         <v>559.54340000000002</v>
       </c>
       <c r="O4" s="14">
+        <f>correction_reference_year!O47</f>
         <v>559.54340000000002</v>
       </c>
       <c r="P4" s="14">
+        <f>correction_reference_year!P47</f>
         <v>394156291.01038784</v>
       </c>
       <c r="Q4" s="14">
-        <v>8433.4220000000005</v>
+        <f>correction_reference_year!Q47</f>
+        <v>662.89980000000003</v>
       </c>
       <c r="R4" s="14">
+        <f>correction_reference_year!R47</f>
         <v>900</v>
       </c>
-      <c r="S4" s="58">
+      <c r="S4" s="14">
+        <f>correction_reference_year!S47</f>
         <v>600</v>
       </c>
-      <c r="T4" s="58">
+      <c r="T4" s="14">
+        <f>correction_reference_year!T47</f>
         <v>250</v>
       </c>
-      <c r="U4" s="58">
+      <c r="U4" s="14">
+        <f>correction_reference_year!U47</f>
         <v>225</v>
       </c>
-      <c r="V4" s="58">
+      <c r="V4" s="14">
+        <f>correction_reference_year!V47</f>
         <v>175</v>
       </c>
-      <c r="W4" s="58">
+      <c r="W4" s="14">
+        <f>correction_reference_year!W47</f>
         <v>75</v>
       </c>
-      <c r="X4" s="58">
+      <c r="X4" s="14">
+        <f>correction_reference_year!X47</f>
         <v>1197</v>
       </c>
-      <c r="Y4" s="58">
+      <c r="Y4" s="14">
+        <f>correction_reference_year!Y47</f>
+        <v>293.85552688989833</v>
+      </c>
+      <c r="Z4" s="14">
+        <f>correction_reference_year!Z47</f>
+        <v>4421.46602460141</v>
+      </c>
+      <c r="AA4" s="14">
+        <f>correction_reference_year!AA47</f>
         <v>2413201.7816962521</v>
       </c>
-      <c r="Z4" s="14">
-        <v>148865.17338917882</v>
-      </c>
-      <c r="AA4" s="14">
+      <c r="AB4" s="14">
+        <f>correction_reference_year!AB47</f>
+        <v>89319.10403350729</v>
+      </c>
+      <c r="AC4" s="14">
+        <f>correction_reference_year!AC47</f>
         <v>658.46820000000002</v>
       </c>
-      <c r="AB4" s="14">
+      <c r="AD4" s="14">
+        <f>correction_reference_year!AD47</f>
         <v>658.46820000000002</v>
       </c>
-      <c r="AC4" s="14">
+      <c r="AE4" s="14">
+        <f>correction_reference_year!AE47</f>
         <v>658.46820000000002</v>
       </c>
-      <c r="AD4" s="14">
+      <c r="AF4" s="14">
+        <f>correction_reference_year!AF47</f>
         <v>658.46820000000002</v>
       </c>
-      <c r="AE4" s="14">
+      <c r="AG4" s="14">
+        <f>correction_reference_year!AG47</f>
         <v>658.46820000000002</v>
       </c>
-      <c r="AF4" s="14">
+      <c r="AH4" s="14">
+        <f>correction_reference_year!AH47</f>
         <v>658.46820000000002</v>
       </c>
-      <c r="AG4" s="14">
+      <c r="AI4" s="14">
+        <f>correction_reference_year!AI47</f>
         <v>658.46820000000002</v>
       </c>
-      <c r="AH4" s="14">
+      <c r="AJ4" s="14">
+        <f>correction_reference_year!AJ47</f>
         <v>658.46820000000002</v>
       </c>
-      <c r="AI4" s="14">
+      <c r="AK4" s="14">
+        <f>correction_reference_year!AK47</f>
         <v>658.46820000000002</v>
       </c>
-      <c r="AJ4" s="14">
+      <c r="AL4" s="14">
+        <f>correction_reference_year!AL47</f>
         <v>658.46820000000002</v>
       </c>
-      <c r="AK4" s="14">
+      <c r="AM4" s="14">
+        <f>correction_reference_year!AM47</f>
         <v>658.46820000000002</v>
       </c>
-      <c r="AL4" s="14">
+      <c r="AN4" s="14">
+        <f>correction_reference_year!AN47</f>
         <v>658.46820000000002</v>
       </c>
-      <c r="AM4" s="14">
+      <c r="AO4" s="14">
+        <f>correction_reference_year!AO47</f>
         <v>658.46820000000002</v>
       </c>
-      <c r="AN4" s="14">
+      <c r="AP4" s="14">
+        <f>correction_reference_year!AP47</f>
         <v>658.46820000000002</v>
       </c>
-      <c r="AO4" s="14">
+      <c r="AQ4" s="14">
+        <f>correction_reference_year!AQ47</f>
         <v>658.46820000000002</v>
       </c>
-      <c r="AP4" s="14">
+      <c r="AR4" s="14">
+        <f>correction_reference_year!AR47</f>
         <v>658.46820000000002</v>
       </c>
-      <c r="AQ4" s="14">
+      <c r="AS4" s="14">
+        <f>correction_reference_year!AS47</f>
         <v>658.46820000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>30</v>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A5" s="82" t="str">
+        <f>correction_reference_year!A48</f>
+        <v>LowerDam</v>
       </c>
       <c r="B5" s="14">
-        <v>724.32618619339962</v>
+        <f>correction_reference_year!B48</f>
+        <v>434.59571171603977</v>
       </c>
       <c r="C5" s="14">
-        <v>214.00546410259537</v>
+        <f>correction_reference_year!C48</f>
+        <v>128.40327846155722</v>
       </c>
       <c r="D5" s="14">
-        <v>98.771752662736318</v>
+        <f>correction_reference_year!D48</f>
+        <v>59.263051597641791</v>
       </c>
       <c r="E5" s="14">
+        <f>correction_reference_year!E48</f>
         <v>120660089.0848126</v>
       </c>
       <c r="F5" s="14">
+        <f>correction_reference_year!F48</f>
         <v>12066008.908481261</v>
       </c>
       <c r="G5" s="14">
-        <v>35488.851782732541</v>
+        <f>correction_reference_year!G48</f>
+        <v>21293.311069639523</v>
       </c>
       <c r="H5" s="14">
-        <v>16924.860033395544</v>
+        <f>correction_reference_year!H48</f>
+        <v>10154.916020037326</v>
       </c>
       <c r="I5" s="14">
+        <f>correction_reference_year!I48</f>
         <v>723960.53450887557</v>
       </c>
       <c r="J5" s="14">
+        <f>correction_reference_year!J48</f>
         <v>361980.26725443779</v>
       </c>
       <c r="K5" s="14">
+        <f>correction_reference_year!K48</f>
         <v>36198.026725443779</v>
       </c>
       <c r="L5" s="14">
+        <f>correction_reference_year!L48</f>
         <v>36198026.72544378</v>
       </c>
-      <c r="M5" s="14"/>
+      <c r="M5" s="14">
+        <f>correction_reference_year!M48</f>
+        <v>0</v>
+      </c>
       <c r="N5" s="14">
+        <f>correction_reference_year!N48</f>
         <v>419.65755000000001</v>
       </c>
       <c r="O5" s="14">
+        <f>correction_reference_year!O48</f>
         <v>419.65755000000001</v>
       </c>
       <c r="P5" s="14">
+        <f>correction_reference_year!P48</f>
         <v>72396053.450887561</v>
       </c>
       <c r="Q5" s="14">
-        <v>6325.0665000000008</v>
+        <f>correction_reference_year!Q48</f>
+        <v>595.25722045652594</v>
       </c>
       <c r="R5" s="14">
+        <f>correction_reference_year!R48</f>
         <v>675</v>
       </c>
       <c r="S5" s="14">
+        <f>correction_reference_year!S48</f>
         <v>450</v>
       </c>
       <c r="T5" s="14">
+        <f>correction_reference_year!T48</f>
         <v>187.5</v>
       </c>
       <c r="U5" s="14">
+        <f>correction_reference_year!U48</f>
         <v>168.75</v>
       </c>
       <c r="V5" s="14">
+        <f>correction_reference_year!V48</f>
         <v>131.25</v>
       </c>
       <c r="W5" s="14">
+        <f>correction_reference_year!W48</f>
         <v>56.25</v>
       </c>
       <c r="X5" s="14">
+        <f>correction_reference_year!X48</f>
         <v>897.75</v>
       </c>
       <c r="Y5" s="14">
+        <f>correction_reference_year!Y48</f>
+        <v>220.39164516742377</v>
+      </c>
+      <c r="Z5" s="14">
+        <f>correction_reference_year!Z48</f>
+        <v>2383.8018252636739</v>
+      </c>
+      <c r="AA5" s="14">
+        <f>correction_reference_year!AA48</f>
         <v>1809901.3362721889</v>
       </c>
-      <c r="Z5" s="14">
-        <v>90112.090429284988</v>
-      </c>
-      <c r="AA5" s="14">
+      <c r="AB5" s="14">
+        <f>correction_reference_year!AB48</f>
+        <v>54067.254257570989</v>
+      </c>
+      <c r="AC5" s="14">
+        <f>correction_reference_year!AC48</f>
         <v>493.85115000000002</v>
       </c>
-      <c r="AB5" s="14">
+      <c r="AD5" s="14">
+        <f>correction_reference_year!AD48</f>
         <v>493.85115000000002</v>
       </c>
-      <c r="AC5" s="14">
+      <c r="AE5" s="14">
+        <f>correction_reference_year!AE48</f>
         <v>493.85115000000002</v>
       </c>
-      <c r="AD5" s="14">
+      <c r="AF5" s="14">
+        <f>correction_reference_year!AF48</f>
         <v>493.85115000000002</v>
       </c>
-      <c r="AE5" s="14">
+      <c r="AG5" s="14">
+        <f>correction_reference_year!AG48</f>
         <v>493.85115000000002</v>
       </c>
-      <c r="AF5" s="14">
+      <c r="AH5" s="14">
+        <f>correction_reference_year!AH48</f>
         <v>493.85115000000002</v>
       </c>
-      <c r="AG5" s="14">
+      <c r="AI5" s="14">
+        <f>correction_reference_year!AI48</f>
         <v>493.85115000000002</v>
       </c>
-      <c r="AH5" s="14">
+      <c r="AJ5" s="14">
+        <f>correction_reference_year!AJ48</f>
         <v>493.85115000000002</v>
       </c>
-      <c r="AI5" s="14">
+      <c r="AK5" s="14">
+        <f>correction_reference_year!AK48</f>
         <v>493.85115000000002</v>
       </c>
-      <c r="AJ5" s="14">
+      <c r="AL5" s="14">
+        <f>correction_reference_year!AL48</f>
         <v>493.85115000000002</v>
       </c>
-      <c r="AK5" s="14">
+      <c r="AM5" s="14">
+        <f>correction_reference_year!AM48</f>
         <v>493.85115000000002</v>
       </c>
-      <c r="AL5" s="14">
+      <c r="AN5" s="14">
+        <f>correction_reference_year!AN48</f>
         <v>493.85115000000002</v>
       </c>
-      <c r="AM5" s="14">
+      <c r="AO5" s="14">
+        <f>correction_reference_year!AO48</f>
         <v>493.85115000000002</v>
       </c>
-      <c r="AN5" s="14">
+      <c r="AP5" s="14">
+        <f>correction_reference_year!AP48</f>
         <v>493.85115000000002</v>
       </c>
-      <c r="AO5" s="14">
+      <c r="AQ5" s="14">
+        <f>correction_reference_year!AQ48</f>
         <v>493.85115000000002</v>
       </c>
-      <c r="AP5" s="14">
+      <c r="AR5" s="14">
+        <f>correction_reference_year!AR48</f>
         <v>493.85115000000002</v>
       </c>
-      <c r="AQ5" s="14">
+      <c r="AS5" s="14">
+        <f>correction_reference_year!AS48</f>
         <v>493.85115000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>94</v>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A6" s="82" t="str">
+        <f>correction_reference_year!A49</f>
+        <v>Upperdam</v>
       </c>
       <c r="B6" s="14">
-        <v>15145.002074952903</v>
+        <f>correction_reference_year!B49</f>
+        <v>9087.0012449717415</v>
       </c>
       <c r="C6" s="14">
-        <v>3292.391755424544</v>
+        <f>correction_reference_year!C49</f>
+        <v>1975.4350532547264</v>
       </c>
       <c r="D6" s="14">
-        <v>1501.330640473592</v>
+        <f>correction_reference_year!D49</f>
+        <v>900.79838428415519</v>
       </c>
       <c r="E6" s="14">
+        <f>correction_reference_year!E49</f>
         <v>603300445.42406297</v>
       </c>
       <c r="F6" s="14">
+        <f>correction_reference_year!F49</f>
         <v>60330044.542406298</v>
       </c>
       <c r="G6" s="14">
-        <v>685836.75473922014</v>
+        <f>correction_reference_year!G49</f>
+        <v>411502.05284353206</v>
       </c>
       <c r="H6" s="14">
-        <v>56125.724388566938</v>
+        <f>correction_reference_year!H49</f>
+        <v>33675.434633140161</v>
       </c>
       <c r="I6" s="14">
+        <f>correction_reference_year!I49</f>
         <v>1206600.890848126</v>
       </c>
       <c r="J6" s="14">
+        <f>correction_reference_year!J49</f>
         <v>603300.44542406301</v>
       </c>
       <c r="K6" s="14">
+        <f>correction_reference_year!K49</f>
         <v>1809901.3362721889</v>
       </c>
       <c r="L6" s="14">
+        <f>correction_reference_year!L49</f>
         <v>434376320.70532537</v>
       </c>
-      <c r="M6" s="14"/>
+      <c r="M6" s="14">
+        <f>correction_reference_year!M49</f>
+        <v>0</v>
+      </c>
       <c r="N6" s="14">
+        <f>correction_reference_year!N49</f>
         <v>699.42925000000002</v>
       </c>
       <c r="O6" s="14">
+        <f>correction_reference_year!O49</f>
         <v>699.42925000000002</v>
       </c>
       <c r="P6" s="14">
+        <f>correction_reference_year!P49</f>
         <v>868752641.41065073</v>
       </c>
       <c r="Q6" s="14">
-        <v>10541.7775</v>
+        <f>correction_reference_year!Q49</f>
+        <v>730.5429523784635</v>
       </c>
       <c r="R6" s="14">
+        <f>correction_reference_year!R49</f>
         <v>1125</v>
       </c>
       <c r="S6" s="14">
+        <f>correction_reference_year!S49</f>
         <v>750</v>
       </c>
       <c r="T6" s="14">
+        <f>correction_reference_year!T49</f>
         <v>312.5</v>
       </c>
       <c r="U6" s="14">
+        <f>correction_reference_year!U49</f>
         <v>281.25</v>
       </c>
       <c r="V6" s="14">
+        <f>correction_reference_year!V49</f>
         <v>218.75</v>
       </c>
       <c r="W6" s="14">
+        <f>correction_reference_year!W49</f>
         <v>93.75</v>
       </c>
       <c r="X6" s="14">
+        <f>correction_reference_year!X49</f>
         <v>1496.25</v>
       </c>
       <c r="Y6" s="14">
+        <f>correction_reference_year!Y49</f>
+        <v>367.31940861237291</v>
+      </c>
+      <c r="Z6" s="14">
+        <f>correction_reference_year!Z49</f>
+        <v>13794.973996756393</v>
+      </c>
+      <c r="AA6" s="14">
+        <f>correction_reference_year!AA49</f>
         <v>3016502.2271203152</v>
       </c>
-      <c r="Z6" s="14">
-        <v>270336.27128785499</v>
-      </c>
-      <c r="AA6" s="14">
+      <c r="AB6" s="14">
+        <f>correction_reference_year!AB49</f>
+        <v>162201.762772713</v>
+      </c>
+      <c r="AC6" s="14">
+        <f>correction_reference_year!AC49</f>
         <v>823.08525000000009</v>
       </c>
-      <c r="AB6" s="14">
+      <c r="AD6" s="14">
+        <f>correction_reference_year!AD49</f>
         <v>823.08525000000009</v>
       </c>
-      <c r="AC6" s="14">
+      <c r="AE6" s="14">
+        <f>correction_reference_year!AE49</f>
         <v>823.08525000000009</v>
       </c>
-      <c r="AD6" s="14">
+      <c r="AF6" s="14">
+        <f>correction_reference_year!AF49</f>
         <v>823.08525000000009</v>
       </c>
-      <c r="AE6" s="14">
+      <c r="AG6" s="14">
+        <f>correction_reference_year!AG49</f>
         <v>823.08525000000009</v>
       </c>
-      <c r="AF6" s="14">
+      <c r="AH6" s="14">
+        <f>correction_reference_year!AH49</f>
         <v>823.08525000000009</v>
       </c>
-      <c r="AG6" s="14">
+      <c r="AI6" s="14">
+        <f>correction_reference_year!AI49</f>
         <v>823.08525000000009</v>
       </c>
-      <c r="AH6" s="14">
+      <c r="AJ6" s="14">
+        <f>correction_reference_year!AJ49</f>
         <v>823.08525000000009</v>
       </c>
-      <c r="AI6" s="14">
+      <c r="AK6" s="14">
+        <f>correction_reference_year!AK49</f>
         <v>823.08525000000009</v>
       </c>
-      <c r="AJ6" s="14">
+      <c r="AL6" s="14">
+        <f>correction_reference_year!AL49</f>
         <v>823.08525000000009</v>
       </c>
-      <c r="AK6" s="14">
+      <c r="AM6" s="14">
+        <f>correction_reference_year!AM49</f>
         <v>823.08525000000009</v>
       </c>
-      <c r="AL6" s="14">
+      <c r="AN6" s="14">
+        <f>correction_reference_year!AN49</f>
         <v>823.08525000000009</v>
       </c>
-      <c r="AM6" s="14">
+      <c r="AO6" s="14">
+        <f>correction_reference_year!AO49</f>
         <v>823.08525000000009</v>
       </c>
-      <c r="AN6" s="14">
+      <c r="AP6" s="14">
+        <f>correction_reference_year!AP49</f>
         <v>823.08525000000009</v>
       </c>
-      <c r="AO6" s="14">
+      <c r="AQ6" s="14">
+        <f>correction_reference_year!AQ49</f>
         <v>823.08525000000009</v>
       </c>
-      <c r="AP6" s="14">
+      <c r="AR6" s="14">
+        <f>correction_reference_year!AR49</f>
         <v>823.08525000000009</v>
       </c>
-      <c r="AQ6" s="14">
+      <c r="AS6" s="14">
+        <f>correction_reference_year!AS49</f>
         <v>823.08525000000009</v>
       </c>
     </row>
-    <row r="7" spans="1:43" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
         <v>112</v>
       </c>
@@ -1929,8 +3543,8 @@
       <c r="V7" s="20"/>
       <c r="W7" s="20"/>
       <c r="X7" s="20"/>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="20"/>
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="20"/>
       <c r="AC7" s="20"/>
       <c r="AD7" s="20"/>
       <c r="AE7" s="20"/>
@@ -1946,10 +3560,12 @@
       <c r="AO7" s="20"/>
       <c r="AP7" s="20"/>
       <c r="AQ7" s="20"/>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR7" s="20"/>
+      <c r="AS7" s="20"/>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="H8" s="17"/>
-      <c r="I8" s="59"/>
+      <c r="I8" s="58"/>
       <c r="R8" s="19"/>
       <c r="S8" s="19"/>
       <c r="T8" s="45"/>
@@ -1957,7 +3573,7 @@
       <c r="V8" s="19"/>
       <c r="W8" s="19"/>
     </row>
-    <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1969,7 +3585,7 @@
       <c r="V9" s="19"/>
       <c r="W9" s="19"/>
     </row>
-    <row r="10" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -2034,22 +3650,22 @@
         <v>0</v>
       </c>
       <c r="X10" s="22">
-        <f>MIN(A10/100, 0.24*A10/100 + 0.4, 0.07*A10/100 + 0.75, 1)</f>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="21">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="55">
+        <f>MIN($A$10/100, 0.24*$A$10/100 + 0.4, 0.07*$A$10/100 + 0.75, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="55">
         <f>MIN(0.8*A10/100, 0.34*A10/100 + 0.15, 1)</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="21">
-        <v>0</v>
-      </c>
       <c r="AC10" s="21">
         <v>0</v>
       </c>
@@ -2095,8 +3711,14 @@
       <c r="AQ10" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AR10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2128,16 +3750,18 @@
       <c r="V11" s="16"/>
       <c r="W11" s="16"/>
       <c r="X11" s="28">
-        <f t="shared" ref="X11:X51" si="0">MIN(A11/100, 0.24*A11/100 + 0.4, 0.07*A11/100 + 0.75, 1)</f>
+        <f>MIN(A11/100, 0.24*A11/100 + 0.4, 0.07*A11/100 + 0.75, 1)</f>
         <v>0.01</v>
       </c>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="56">
-        <f t="shared" ref="Z11:Z51" si="1">MIN(0.8*A11/100, 0.34*A11/100 + 0.15, 1)</f>
+      <c r="Y11" s="28">
+        <v>0.01</v>
+      </c>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="56">
+        <f t="shared" ref="AB11:AB51" si="0">MIN(0.8*A11/100, 0.34*A11/100 + 0.15, 1)</f>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
       <c r="AC11" s="16"/>
       <c r="AD11" s="16"/>
       <c r="AE11" s="16"/>
@@ -2153,8 +3777,10 @@
       <c r="AO11" s="16"/>
       <c r="AP11" s="16"/>
       <c r="AQ11" s="16"/>
-    </row>
-    <row r="12" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AR11" s="16"/>
+      <c r="AS11" s="16"/>
+    </row>
+    <row r="12" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>20</v>
       </c>
@@ -2186,16 +3812,18 @@
       <c r="V12" s="16"/>
       <c r="W12" s="16"/>
       <c r="X12" s="28">
+        <f t="shared" ref="X12:X51" si="1">MIN(A12/100, 0.24*A12/100 + 0.4, 0.07*A12/100 + 0.75, 1)</f>
+        <v>0.2</v>
+      </c>
+      <c r="Y12" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="56">
         <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="56">
-        <f t="shared" si="1"/>
         <v>0.16</v>
       </c>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
       <c r="AC12" s="16"/>
       <c r="AD12" s="16"/>
       <c r="AE12" s="16"/>
@@ -2211,8 +3839,10 @@
       <c r="AO12" s="16"/>
       <c r="AP12" s="16"/>
       <c r="AQ12" s="16"/>
-    </row>
-    <row r="13" spans="1:43" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AR12" s="16"/>
+      <c r="AS12" s="16"/>
+    </row>
+    <row r="13" spans="1:45" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>30</v>
       </c>
@@ -2265,15 +3895,17 @@
         <f>MIN(A13/100, 0.24*A13/100 + 0.4, 0.07*A13/100 + 0.75, 1)</f>
         <v>0.3</v>
       </c>
-      <c r="Y13" s="21">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="56">
-        <f t="shared" si="1"/>
+      <c r="Y13" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="56">
+        <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
       <c r="AC13" s="16"/>
       <c r="AD13" s="16"/>
       <c r="AE13" s="16"/>
@@ -2289,8 +3921,10 @@
       <c r="AO13" s="16"/>
       <c r="AP13" s="16"/>
       <c r="AQ13" s="16"/>
-    </row>
-    <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AR13" s="16"/>
+      <c r="AS13" s="16"/>
+    </row>
+    <row r="14" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>50</v>
       </c>
@@ -2340,15 +3974,15 @@
         <f>MIN(A14/100, 0.24*A14/100 + 0.4, 0.07*A14/100 + 0.75, 1)</f>
         <v>0.5</v>
       </c>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="56">
-        <f t="shared" si="1"/>
-        <v>0.32</v>
-      </c>
-      <c r="AA14" s="21">
-        <v>0.32</v>
-      </c>
-      <c r="AB14" s="21">
+      <c r="Y14" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="Z14" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="56">
+        <f t="shared" si="0"/>
         <v>0.32</v>
       </c>
       <c r="AC14" s="21">
@@ -2396,8 +4030,14 @@
       <c r="AQ14" s="21">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AR14" s="21">
+        <v>0.32</v>
+      </c>
+      <c r="AS14" s="21">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>60</v>
       </c>
@@ -2428,16 +4068,18 @@
       <c r="V15" s="16"/>
       <c r="W15" s="16"/>
       <c r="X15" s="28">
+        <f t="shared" si="1"/>
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="Y15" s="28">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="56">
         <f t="shared" si="0"/>
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="56">
-        <f t="shared" si="1"/>
         <v>0.35399999999999998</v>
       </c>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="16"/>
       <c r="AC15" s="16"/>
       <c r="AD15" s="16"/>
       <c r="AE15" s="16"/>
@@ -2453,8 +4095,10 @@
       <c r="AO15" s="16"/>
       <c r="AP15" s="16"/>
       <c r="AQ15" s="16"/>
-    </row>
-    <row r="16" spans="1:43" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AR15" s="16"/>
+      <c r="AS15" s="16"/>
+    </row>
+    <row r="16" spans="1:45" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>61</v>
       </c>
@@ -2504,18 +4148,20 @@
       <c r="V16" s="16"/>
       <c r="W16" s="16"/>
       <c r="X16" s="28">
+        <f t="shared" si="1"/>
+        <v>0.5464</v>
+      </c>
+      <c r="Y16" s="28">
+        <v>0.5464</v>
+      </c>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="56">
         <f t="shared" si="0"/>
-        <v>0.5464</v>
-      </c>
-      <c r="Y16" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="56">
-        <f t="shared" si="1"/>
         <v>0.35740000000000005</v>
       </c>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16"/>
       <c r="AC16" s="16"/>
       <c r="AD16" s="16"/>
       <c r="AE16" s="16"/>
@@ -2531,8 +4177,10 @@
       <c r="AO16" s="16"/>
       <c r="AP16" s="16"/>
       <c r="AQ16" s="16"/>
-    </row>
-    <row r="17" spans="1:43" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AR16" s="16"/>
+      <c r="AS16" s="16"/>
+    </row>
+    <row r="17" spans="1:45" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>91</v>
       </c>
@@ -2582,18 +4230,20 @@
       <c r="V17" s="16"/>
       <c r="W17" s="16"/>
       <c r="X17" s="28">
+        <f t="shared" si="1"/>
+        <v>0.61840000000000006</v>
+      </c>
+      <c r="Y17" s="28">
+        <v>0.61840000000000006</v>
+      </c>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="AB17" s="56">
         <f t="shared" si="0"/>
-        <v>0.61840000000000006</v>
-      </c>
-      <c r="Y17" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="Z17" s="56">
-        <f t="shared" si="1"/>
         <v>0.45940000000000003</v>
       </c>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
       <c r="AC17" s="16"/>
       <c r="AD17" s="16"/>
       <c r="AE17" s="16"/>
@@ -2609,8 +4259,10 @@
       <c r="AO17" s="16"/>
       <c r="AP17" s="16"/>
       <c r="AQ17" s="16"/>
-    </row>
-    <row r="18" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AR17" s="16"/>
+      <c r="AS17" s="16"/>
+    </row>
+    <row r="18" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>100</v>
       </c>
@@ -2657,19 +4309,19 @@
         <v>0.4</v>
       </c>
       <c r="X18" s="28">
+        <f t="shared" si="1"/>
+        <v>0.64</v>
+      </c>
+      <c r="Y18" s="28">
+        <v>0.64</v>
+      </c>
+      <c r="Z18" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="56">
         <f t="shared" si="0"/>
-        <v>0.64</v>
-      </c>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="56">
-        <f t="shared" si="1"/>
         <v>0.49</v>
-      </c>
-      <c r="AA18" s="21">
-        <v>0.51</v>
-      </c>
-      <c r="AB18" s="21">
-        <v>0.51</v>
       </c>
       <c r="AC18" s="21">
         <v>0.51</v>
@@ -2716,8 +4368,14 @@
       <c r="AQ18" s="21">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="19" spans="1:43" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AR18" s="21">
+        <v>0.51</v>
+      </c>
+      <c r="AS18" s="21">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>122</v>
       </c>
@@ -2767,18 +4425,20 @@
       <c r="V19" s="26"/>
       <c r="W19" s="26"/>
       <c r="X19" s="28">
+        <f t="shared" si="1"/>
+        <v>0.69279999999999997</v>
+      </c>
+      <c r="Y19" s="28">
+        <v>0.69279999999999997</v>
+      </c>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="AB19" s="56">
         <f t="shared" si="0"/>
-        <v>0.69279999999999997</v>
-      </c>
-      <c r="Y19" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="Z19" s="56">
-        <f t="shared" si="1"/>
         <v>0.56480000000000008</v>
       </c>
-      <c r="AA19" s="26"/>
-      <c r="AB19" s="26"/>
       <c r="AC19" s="26"/>
       <c r="AD19" s="26"/>
       <c r="AE19" s="26"/>
@@ -2794,8 +4454,10 @@
       <c r="AO19" s="26"/>
       <c r="AP19" s="26"/>
       <c r="AQ19" s="26"/>
-    </row>
-    <row r="20" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AR19" s="26"/>
+      <c r="AS19" s="26"/>
+    </row>
+    <row r="20" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>140</v>
       </c>
@@ -2828,16 +4490,18 @@
       <c r="V20" s="16"/>
       <c r="W20" s="16"/>
       <c r="X20" s="28">
+        <f t="shared" si="1"/>
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="Y20" s="28">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="56">
         <f t="shared" si="0"/>
-        <v>0.73599999999999999</v>
-      </c>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="56">
-        <f t="shared" si="1"/>
         <v>0.626</v>
       </c>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="16"/>
       <c r="AC20" s="16"/>
       <c r="AD20" s="16"/>
       <c r="AE20" s="16"/>
@@ -2853,8 +4517,10 @@
       <c r="AO20" s="16"/>
       <c r="AP20" s="16"/>
       <c r="AQ20" s="16"/>
-    </row>
-    <row r="21" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AR20" s="16"/>
+      <c r="AS20" s="16"/>
+    </row>
+    <row r="21" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>146</v>
       </c>
@@ -2885,16 +4551,18 @@
       <c r="V21" s="16"/>
       <c r="W21" s="16"/>
       <c r="X21" s="28">
+        <f t="shared" si="1"/>
+        <v>0.75039999999999996</v>
+      </c>
+      <c r="Y21" s="28">
+        <v>0.75039999999999996</v>
+      </c>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="56">
         <f t="shared" si="0"/>
-        <v>0.75039999999999996</v>
-      </c>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="56">
-        <f t="shared" si="1"/>
         <v>0.64639999999999997</v>
       </c>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="16"/>
       <c r="AC21" s="16"/>
       <c r="AD21" s="16"/>
       <c r="AE21" s="16"/>
@@ -2910,8 +4578,10 @@
       <c r="AO21" s="16"/>
       <c r="AP21" s="16"/>
       <c r="AQ21" s="16"/>
-    </row>
-    <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AR21" s="16"/>
+      <c r="AS21" s="16"/>
+    </row>
+    <row r="22" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>150</v>
       </c>
@@ -2958,19 +4628,19 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="X22" s="28">
+        <f t="shared" si="1"/>
+        <v>0.76</v>
+      </c>
+      <c r="Y22" s="28">
+        <v>0.76</v>
+      </c>
+      <c r="Z22" s="21">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="56">
         <f t="shared" si="0"/>
-        <v>0.76</v>
-      </c>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="56">
-        <f t="shared" si="1"/>
         <v>0.66000000000000014</v>
-      </c>
-      <c r="AA22" s="21">
-        <v>0.63</v>
-      </c>
-      <c r="AB22" s="21">
-        <v>0.63</v>
       </c>
       <c r="AC22" s="21">
         <v>0.63</v>
@@ -3017,8 +4687,14 @@
       <c r="AQ22" s="21">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="23" spans="1:43" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AR22" s="21">
+        <v>0.63</v>
+      </c>
+      <c r="AS22" s="21">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:45" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>152</v>
       </c>
@@ -3068,18 +4744,20 @@
       <c r="V23" s="26"/>
       <c r="W23" s="26"/>
       <c r="X23" s="28">
+        <f t="shared" si="1"/>
+        <v>0.76479999999999992</v>
+      </c>
+      <c r="Y23" s="28">
+        <v>0.76479999999999992</v>
+      </c>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="AB23" s="56">
         <f t="shared" si="0"/>
-        <v>0.76479999999999992</v>
-      </c>
-      <c r="Y23" s="22">
-        <v>0.01</v>
-      </c>
-      <c r="Z23" s="56">
-        <f t="shared" si="1"/>
         <v>0.66680000000000006</v>
       </c>
-      <c r="AA23" s="26"/>
-      <c r="AB23" s="26"/>
       <c r="AC23" s="26"/>
       <c r="AD23" s="26"/>
       <c r="AE23" s="26"/>
@@ -3095,8 +4773,10 @@
       <c r="AO23" s="26"/>
       <c r="AP23" s="26"/>
       <c r="AQ23" s="26"/>
-    </row>
-    <row r="24" spans="1:43" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AR23" s="26"/>
+      <c r="AS23" s="26"/>
+    </row>
+    <row r="24" spans="1:45" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>183</v>
       </c>
@@ -3146,18 +4826,20 @@
       <c r="V24" s="26"/>
       <c r="W24" s="26"/>
       <c r="X24" s="28">
+        <f t="shared" si="1"/>
+        <v>0.83920000000000006</v>
+      </c>
+      <c r="Y24" s="28">
+        <v>0.83920000000000006</v>
+      </c>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="AB24" s="56">
         <f t="shared" si="0"/>
-        <v>0.83920000000000006</v>
-      </c>
-      <c r="Y24" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="Z24" s="56">
-        <f t="shared" si="1"/>
         <v>0.77220000000000011</v>
       </c>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="26"/>
       <c r="AC24" s="26"/>
       <c r="AD24" s="26"/>
       <c r="AE24" s="26"/>
@@ -3173,8 +4855,10 @@
       <c r="AO24" s="26"/>
       <c r="AP24" s="26"/>
       <c r="AQ24" s="26"/>
-    </row>
-    <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AR24" s="26"/>
+      <c r="AS24" s="26"/>
+    </row>
+    <row r="25" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>200</v>
       </c>
@@ -3221,19 +4905,19 @@
         <v>0.68</v>
       </c>
       <c r="X25" s="28">
+        <f t="shared" si="1"/>
+        <v>0.88</v>
+      </c>
+      <c r="Y25" s="28">
+        <v>0.88</v>
+      </c>
+      <c r="Z25" s="21">
+        <v>0.68</v>
+      </c>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="56">
         <f t="shared" si="0"/>
-        <v>0.88</v>
-      </c>
-      <c r="Y25" s="16"/>
-      <c r="Z25" s="56">
-        <f t="shared" si="1"/>
         <v>0.83000000000000007</v>
-      </c>
-      <c r="AA25" s="21">
-        <v>0.74</v>
-      </c>
-      <c r="AB25" s="21">
-        <v>0.74</v>
       </c>
       <c r="AC25" s="21">
         <v>0.74</v>
@@ -3280,8 +4964,14 @@
       <c r="AQ25" s="21">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AR25" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="AS25" s="21">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>212</v>
       </c>
@@ -3312,16 +5002,18 @@
       <c r="V26" s="16"/>
       <c r="W26" s="16"/>
       <c r="X26" s="28">
+        <f t="shared" si="1"/>
+        <v>0.89839999999999998</v>
+      </c>
+      <c r="Y26" s="28">
+        <v>0.89839999999999998</v>
+      </c>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="56">
         <f t="shared" si="0"/>
-        <v>0.89839999999999998</v>
-      </c>
-      <c r="Y26" s="16"/>
-      <c r="Z26" s="56">
-        <f t="shared" si="1"/>
         <v>0.87080000000000002</v>
       </c>
-      <c r="AA26" s="16"/>
-      <c r="AB26" s="16"/>
       <c r="AC26" s="16"/>
       <c r="AD26" s="16"/>
       <c r="AE26" s="16"/>
@@ -3337,8 +5029,10 @@
       <c r="AO26" s="16"/>
       <c r="AP26" s="16"/>
       <c r="AQ26" s="16"/>
-    </row>
-    <row r="27" spans="1:43" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AR26" s="16"/>
+      <c r="AS26" s="16"/>
+    </row>
+    <row r="27" spans="1:45" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
         <v>213</v>
       </c>
@@ -3388,18 +5082,20 @@
       <c r="V27" s="16"/>
       <c r="W27" s="16"/>
       <c r="X27" s="28">
+        <f t="shared" si="1"/>
+        <v>0.89910000000000001</v>
+      </c>
+      <c r="Y27" s="28">
+        <v>0.89910000000000001</v>
+      </c>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="22">
+        <v>0.02</v>
+      </c>
+      <c r="AB27" s="56">
         <f t="shared" si="0"/>
-        <v>0.89910000000000001</v>
-      </c>
-      <c r="Y27" s="22">
-        <v>0.02</v>
-      </c>
-      <c r="Z27" s="56">
-        <f t="shared" si="1"/>
         <v>0.87420000000000009</v>
       </c>
-      <c r="AA27" s="16"/>
-      <c r="AB27" s="16"/>
       <c r="AC27" s="16"/>
       <c r="AD27" s="16"/>
       <c r="AE27" s="16"/>
@@ -3415,8 +5111,10 @@
       <c r="AO27" s="16"/>
       <c r="AP27" s="16"/>
       <c r="AQ27" s="16"/>
-    </row>
-    <row r="28" spans="1:43" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AR27" s="16"/>
+      <c r="AS27" s="16"/>
+    </row>
+    <row r="28" spans="1:45" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18">
         <v>244</v>
       </c>
@@ -3466,18 +5164,20 @@
       <c r="V28" s="16"/>
       <c r="W28" s="16"/>
       <c r="X28" s="28">
+        <f t="shared" si="1"/>
+        <v>0.92080000000000006</v>
+      </c>
+      <c r="Y28" s="28">
+        <v>0.92080000000000006</v>
+      </c>
+      <c r="Z28" s="16"/>
+      <c r="AA28" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="AB28" s="56">
         <f t="shared" si="0"/>
-        <v>0.92080000000000006</v>
-      </c>
-      <c r="Y28" s="21">
-        <v>0.02</v>
-      </c>
-      <c r="Z28" s="56">
-        <f t="shared" si="1"/>
         <v>0.97960000000000014</v>
       </c>
-      <c r="AA28" s="16"/>
-      <c r="AB28" s="16"/>
       <c r="AC28" s="16"/>
       <c r="AD28" s="16"/>
       <c r="AE28" s="16"/>
@@ -3493,8 +5193,10 @@
       <c r="AO28" s="16"/>
       <c r="AP28" s="16"/>
       <c r="AQ28" s="16"/>
-    </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR28" s="16"/>
+      <c r="AS28" s="16"/>
+    </row>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>248</v>
       </c>
@@ -3525,16 +5227,18 @@
       <c r="V29" s="16"/>
       <c r="W29" s="16"/>
       <c r="X29" s="28">
+        <f t="shared" si="1"/>
+        <v>0.92359999999999998</v>
+      </c>
+      <c r="Y29" s="28">
+        <v>0.92359999999999998</v>
+      </c>
+      <c r="Z29" s="16"/>
+      <c r="AA29" s="16"/>
+      <c r="AB29" s="56">
         <f t="shared" si="0"/>
-        <v>0.92359999999999998</v>
-      </c>
-      <c r="Y29" s="16"/>
-      <c r="Z29" s="56">
-        <f t="shared" si="1"/>
         <v>0.99320000000000008</v>
       </c>
-      <c r="AA29" s="16"/>
-      <c r="AB29" s="16"/>
       <c r="AC29" s="16"/>
       <c r="AD29" s="16"/>
       <c r="AE29" s="16"/>
@@ -3550,8 +5254,10 @@
       <c r="AO29" s="16"/>
       <c r="AP29" s="16"/>
       <c r="AQ29" s="16"/>
-    </row>
-    <row r="30" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AR29" s="16"/>
+      <c r="AS29" s="16"/>
+    </row>
+    <row r="30" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>250</v>
       </c>
@@ -3582,16 +5288,18 @@
       <c r="V30" s="16"/>
       <c r="W30" s="16"/>
       <c r="X30" s="28">
+        <f t="shared" si="1"/>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="Y30" s="28">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="Z30" s="16"/>
+      <c r="AA30" s="16"/>
+      <c r="AB30" s="56">
         <f t="shared" si="0"/>
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="Y30" s="16"/>
-      <c r="Z30" s="56">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AA30" s="16"/>
-      <c r="AB30" s="16"/>
       <c r="AC30" s="16"/>
       <c r="AD30" s="16"/>
       <c r="AE30" s="16"/>
@@ -3607,8 +5315,10 @@
       <c r="AO30" s="16"/>
       <c r="AP30" s="16"/>
       <c r="AQ30" s="16"/>
-    </row>
-    <row r="31" spans="1:43" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AR30" s="16"/>
+      <c r="AS30" s="16"/>
+    </row>
+    <row r="31" spans="1:45" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <v>274</v>
       </c>
@@ -3658,18 +5368,20 @@
       <c r="V31" s="16"/>
       <c r="W31" s="16"/>
       <c r="X31" s="28">
+        <f t="shared" si="1"/>
+        <v>0.94179999999999997</v>
+      </c>
+      <c r="Y31" s="28">
+        <v>0.94179999999999997</v>
+      </c>
+      <c r="Z31" s="16"/>
+      <c r="AA31" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="AB31" s="56">
         <f t="shared" si="0"/>
-        <v>0.94179999999999997</v>
-      </c>
-      <c r="Y31" s="21">
-        <v>0.02</v>
-      </c>
-      <c r="Z31" s="56">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AA31" s="16"/>
-      <c r="AB31" s="16"/>
       <c r="AC31" s="16"/>
       <c r="AD31" s="16"/>
       <c r="AE31" s="16"/>
@@ -3685,8 +5397,10 @@
       <c r="AO31" s="16"/>
       <c r="AP31" s="16"/>
       <c r="AQ31" s="16"/>
-    </row>
-    <row r="32" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AR31" s="16"/>
+      <c r="AS31" s="16"/>
+    </row>
+    <row r="32" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>300</v>
       </c>
@@ -3732,19 +5446,19 @@
         <v>0.8</v>
       </c>
       <c r="X32" s="28">
+        <f t="shared" si="1"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="Y32" s="28">
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="Z32" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="56">
         <f t="shared" si="0"/>
-        <v>0.96000000000000008</v>
-      </c>
-      <c r="Y32" s="16"/>
-      <c r="Z32" s="56">
-        <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="AA32" s="21">
-        <v>0.86</v>
-      </c>
-      <c r="AB32" s="21">
-        <v>0.86</v>
       </c>
       <c r="AC32" s="21">
         <v>0.86</v>
@@ -3791,8 +5505,14 @@
       <c r="AQ32" s="21">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="33" spans="1:43" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AR32" s="21">
+        <v>0.86</v>
+      </c>
+      <c r="AS32" s="21">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:45" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
         <v>305</v>
       </c>
@@ -3842,18 +5562,20 @@
       <c r="V33" s="26"/>
       <c r="W33" s="26"/>
       <c r="X33" s="28">
+        <f t="shared" si="1"/>
+        <v>0.96350000000000002</v>
+      </c>
+      <c r="Y33" s="28">
+        <v>0.96350000000000002</v>
+      </c>
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="AB33" s="56">
         <f t="shared" si="0"/>
-        <v>0.96350000000000002</v>
-      </c>
-      <c r="Y33" s="21">
-        <v>0.02</v>
-      </c>
-      <c r="Z33" s="56">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AA33" s="26"/>
-      <c r="AB33" s="26"/>
       <c r="AC33" s="26"/>
       <c r="AD33" s="26"/>
       <c r="AE33" s="26"/>
@@ -3869,8 +5591,10 @@
       <c r="AO33" s="26"/>
       <c r="AP33" s="26"/>
       <c r="AQ33" s="26"/>
-    </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR33" s="26"/>
+      <c r="AS33" s="26"/>
+    </row>
+    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>329</v>
       </c>
@@ -3896,16 +5620,18 @@
       <c r="V34" s="16"/>
       <c r="W34" s="16"/>
       <c r="X34" s="28">
+        <f t="shared" si="1"/>
+        <v>0.98029999999999995</v>
+      </c>
+      <c r="Y34" s="28">
+        <v>0.98029999999999995</v>
+      </c>
+      <c r="Z34" s="16"/>
+      <c r="AA34" s="36"/>
+      <c r="AB34" s="56">
         <f t="shared" si="0"/>
-        <v>0.98029999999999995</v>
-      </c>
-      <c r="Y34" s="36"/>
-      <c r="Z34" s="56">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AA34" s="16"/>
-      <c r="AB34" s="16"/>
       <c r="AC34" s="16"/>
       <c r="AD34" s="16"/>
       <c r="AE34" s="16"/>
@@ -3921,8 +5647,10 @@
       <c r="AO34" s="16"/>
       <c r="AP34" s="16"/>
       <c r="AQ34" s="16"/>
-    </row>
-    <row r="35" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AR34" s="16"/>
+      <c r="AS34" s="16"/>
+    </row>
+    <row r="35" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>350</v>
       </c>
@@ -3948,16 +5676,18 @@
       <c r="V35" s="16"/>
       <c r="W35" s="16"/>
       <c r="X35" s="28">
+        <f t="shared" si="1"/>
+        <v>0.995</v>
+      </c>
+      <c r="Y35" s="28">
+        <v>0.995</v>
+      </c>
+      <c r="Z35" s="16"/>
+      <c r="AA35" s="36"/>
+      <c r="AB35" s="56">
         <f t="shared" si="0"/>
-        <v>0.995</v>
-      </c>
-      <c r="Y35" s="36"/>
-      <c r="Z35" s="56">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AA35" s="16"/>
-      <c r="AB35" s="16"/>
       <c r="AC35" s="16"/>
       <c r="AD35" s="16"/>
       <c r="AE35" s="16"/>
@@ -3973,8 +5703,10 @@
       <c r="AO35" s="16"/>
       <c r="AP35" s="16"/>
       <c r="AQ35" s="16"/>
-    </row>
-    <row r="36" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AR35" s="16"/>
+      <c r="AS35" s="16"/>
+    </row>
+    <row r="36" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>400</v>
       </c>
@@ -4016,20 +5748,20 @@
         <v>0.89</v>
       </c>
       <c r="X36" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y36" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="21">
+        <v>0.89</v>
+      </c>
+      <c r="AA36" s="36"/>
+      <c r="AB36" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y36" s="36"/>
-      <c r="Z36" s="56">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA36" s="21">
-        <v>0.93</v>
-      </c>
-      <c r="AB36" s="21">
-        <v>0.93</v>
-      </c>
       <c r="AC36" s="21">
         <v>0.93</v>
       </c>
@@ -4075,8 +5807,14 @@
       <c r="AQ36" s="21">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR36" s="21">
+        <v>0.93</v>
+      </c>
+      <c r="AS36" s="21">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>402</v>
       </c>
@@ -4102,16 +5840,18 @@
       <c r="V37" s="16"/>
       <c r="W37" s="16"/>
       <c r="X37" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y37" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="16"/>
+      <c r="AA37" s="36"/>
+      <c r="AB37" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y37" s="36"/>
-      <c r="Z37" s="56">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA37" s="16"/>
-      <c r="AB37" s="16"/>
       <c r="AC37" s="16"/>
       <c r="AD37" s="16"/>
       <c r="AE37" s="16"/>
@@ -4127,8 +5867,10 @@
       <c r="AO37" s="16"/>
       <c r="AP37" s="16"/>
       <c r="AQ37" s="16"/>
-    </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR37" s="16"/>
+      <c r="AS37" s="16"/>
+    </row>
+    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>421</v>
       </c>
@@ -4154,16 +5896,18 @@
       <c r="V38" s="16"/>
       <c r="W38" s="16"/>
       <c r="X38" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y38" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="16"/>
+      <c r="AA38" s="36"/>
+      <c r="AB38" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y38" s="36"/>
-      <c r="Z38" s="56">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA38" s="16"/>
-      <c r="AB38" s="16"/>
       <c r="AC38" s="16"/>
       <c r="AD38" s="16"/>
       <c r="AE38" s="16"/>
@@ -4179,8 +5923,10 @@
       <c r="AO38" s="16"/>
       <c r="AP38" s="16"/>
       <c r="AQ38" s="16"/>
-    </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR38" s="16"/>
+      <c r="AS38" s="16"/>
+    </row>
+    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>450</v>
       </c>
@@ -4206,16 +5952,18 @@
       <c r="V39" s="16"/>
       <c r="W39" s="16"/>
       <c r="X39" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y39" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="16"/>
+      <c r="AA39" s="36"/>
+      <c r="AB39" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y39" s="36"/>
-      <c r="Z39" s="56">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA39" s="16"/>
-      <c r="AB39" s="16"/>
       <c r="AC39" s="16"/>
       <c r="AD39" s="16"/>
       <c r="AE39" s="16"/>
@@ -4231,8 +5979,10 @@
       <c r="AO39" s="16"/>
       <c r="AP39" s="16"/>
       <c r="AQ39" s="16"/>
-    </row>
-    <row r="40" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AR39" s="16"/>
+      <c r="AS39" s="16"/>
+    </row>
+    <row r="40" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>487</v>
       </c>
@@ -4258,16 +6008,18 @@
       <c r="V40" s="16"/>
       <c r="W40" s="16"/>
       <c r="X40" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y40" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="16"/>
+      <c r="AA40" s="36"/>
+      <c r="AB40" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y40" s="36"/>
-      <c r="Z40" s="56">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA40" s="16"/>
-      <c r="AB40" s="16"/>
       <c r="AC40" s="16"/>
       <c r="AD40" s="16"/>
       <c r="AE40" s="16"/>
@@ -4283,8 +6035,10 @@
       <c r="AO40" s="16"/>
       <c r="AP40" s="16"/>
       <c r="AQ40" s="16"/>
-    </row>
-    <row r="41" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AR40" s="16"/>
+      <c r="AS40" s="16"/>
+    </row>
+    <row r="41" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>500</v>
       </c>
@@ -4326,20 +6080,20 @@
         <v>0.89</v>
       </c>
       <c r="X41" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y41" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="21">
+        <v>0.89</v>
+      </c>
+      <c r="AA41" s="36"/>
+      <c r="AB41" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y41" s="36"/>
-      <c r="Z41" s="56">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA41" s="21">
-        <v>0.98</v>
-      </c>
-      <c r="AB41" s="21">
-        <v>0.98</v>
-      </c>
       <c r="AC41" s="21">
         <v>0.98</v>
       </c>
@@ -4385,8 +6139,14 @@
       <c r="AQ41" s="21">
         <v>0.98</v>
       </c>
-    </row>
-    <row r="42" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AR41" s="21">
+        <v>0.98</v>
+      </c>
+      <c r="AS41" s="21">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>560</v>
       </c>
@@ -4412,16 +6172,18 @@
       <c r="V42" s="16"/>
       <c r="W42" s="16"/>
       <c r="X42" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y42" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="16"/>
+      <c r="AA42" s="36"/>
+      <c r="AB42" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y42" s="36"/>
-      <c r="Z42" s="56">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA42" s="16"/>
-      <c r="AB42" s="16"/>
       <c r="AC42" s="16"/>
       <c r="AD42" s="16"/>
       <c r="AE42" s="16"/>
@@ -4437,8 +6199,10 @@
       <c r="AO42" s="16"/>
       <c r="AP42" s="16"/>
       <c r="AQ42" s="16"/>
-    </row>
-    <row r="43" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AR42" s="16"/>
+      <c r="AS42" s="16"/>
+    </row>
+    <row r="43" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>600</v>
       </c>
@@ -4480,20 +6244,20 @@
         <v>1</v>
       </c>
       <c r="X43" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y43" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="36"/>
+      <c r="AB43" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y43" s="36"/>
-      <c r="Z43" s="56">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA43" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB43" s="21">
-        <v>1</v>
-      </c>
       <c r="AC43" s="21">
         <v>1</v>
       </c>
@@ -4539,8 +6303,14 @@
       <c r="AQ43" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR43" s="21">
+        <v>1</v>
+      </c>
+      <c r="AS43" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>627</v>
       </c>
@@ -4561,16 +6331,20 @@
       <c r="U44" s="18"/>
       <c r="V44" s="18"/>
       <c r="X44" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y44" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z44" s="86"/>
+      <c r="AA44" s="36"/>
+      <c r="AB44" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y44" s="36"/>
-      <c r="Z44" s="56">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>628</v>
       </c>
@@ -4590,16 +6364,20 @@
       <c r="R45" s="13"/>
       <c r="S45" s="13"/>
       <c r="X45" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y45" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="86"/>
+      <c r="AA45" s="36"/>
+      <c r="AB45" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y45" s="36"/>
-      <c r="Z45" s="56">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>715</v>
       </c>
@@ -4619,16 +6397,20 @@
       <c r="R46" s="13"/>
       <c r="S46" s="13"/>
       <c r="X46" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y46" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="86"/>
+      <c r="AA46" s="36"/>
+      <c r="AB46" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y46" s="36"/>
-      <c r="Z46" s="56">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>779</v>
       </c>
@@ -4648,16 +6430,20 @@
       <c r="R47" s="13"/>
       <c r="S47" s="13"/>
       <c r="X47" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y47" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z47" s="86"/>
+      <c r="AA47" s="36"/>
+      <c r="AB47" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y47" s="36"/>
-      <c r="Z47" s="56">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>782</v>
       </c>
@@ -4677,16 +6463,20 @@
       <c r="R48" s="13"/>
       <c r="S48" s="13"/>
       <c r="X48" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y48" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="86"/>
+      <c r="AA48" s="36"/>
+      <c r="AB48" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y48" s="36"/>
-      <c r="Z48" s="56">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>877</v>
       </c>
@@ -4706,16 +6496,20 @@
       <c r="R49" s="13"/>
       <c r="S49" s="13"/>
       <c r="X49" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y49" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="86"/>
+      <c r="AA49" s="36"/>
+      <c r="AB49" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y49" s="36"/>
-      <c r="Z49" s="56">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>999</v>
       </c>
@@ -4735,16 +6529,20 @@
       <c r="R50" s="13"/>
       <c r="S50" s="13"/>
       <c r="X50" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y50" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z50" s="86"/>
+      <c r="AA50" s="36"/>
+      <c r="AB50" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y50" s="36"/>
-      <c r="Z50" s="56">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1003</v>
       </c>
@@ -4764,59 +6562,63 @@
       <c r="R51" s="13"/>
       <c r="S51" s="13"/>
       <c r="X51" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y51" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z51" s="86"/>
+      <c r="AA51" s="36"/>
+      <c r="AB51" s="57">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y51" s="36"/>
-      <c r="Z51" s="57">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
-      <c r="Y52" s="19"/>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA52" s="19"/>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
@@ -4824,7 +6626,7 @@
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
@@ -4832,7 +6634,7 @@
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
@@ -4841,7 +6643,7 @@
       <c r="G61" s="15"/>
       <c r="J61" s="18"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
       <c r="E62" s="18"/>
@@ -4849,14 +6651,14 @@
       <c r="G62" s="15"/>
       <c r="J62" s="18"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D63" s="15"/>
       <c r="E63" s="18"/>
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
       <c r="J63" s="18"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D64" s="15"/>
       <c r="E64" s="18"/>
       <c r="F64" s="15"/>
@@ -4896,8 +6698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU38"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6094,7 +7896,7 @@
       <c r="AQ16" s="20"/>
     </row>
     <row r="18" spans="1:47" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="59" t="s">
         <v>96</v>
       </c>
     </row>
@@ -6742,7 +8544,7 @@
       <c r="AU22" s="18"/>
     </row>
     <row r="24" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
+      <c r="A24" s="59"/>
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.25">
       <c r="E28" s="18"/>
@@ -6769,10 +8571,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ35"/>
+  <dimension ref="A1:AS50"/>
   <sheetViews>
-    <sheetView topLeftCell="M10" workbookViewId="0">
-      <selection activeCell="AA29" sqref="AA29"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A47" sqref="A47:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6793,14 +8596,15 @@
     <col min="17" max="17" width="12.140625" style="18" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="12" style="18" customWidth="1"/>
     <col min="20" max="24" width="9.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="28" max="43" width="9.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="44" max="16384" width="9.140625" style="18"/>
+    <col min="25" max="26" width="9.28515625" style="82" customWidth="1"/>
+    <col min="27" max="27" width="11.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="30" max="45" width="9.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="46" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>25</v>
       </c>
@@ -6873,65 +8677,71 @@
       <c r="X1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AO1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AP1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="AQ1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AP1" s="7" t="s">
+      <c r="AR1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AQ1" s="7" t="s">
+      <c r="AS1" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>27</v>
       </c>
@@ -6978,7 +8788,7 @@
         <v>81</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="R2" s="18" t="s">
         <v>33</v>
@@ -7001,17 +8811,17 @@
       <c r="X2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="Y2" s="18" t="s">
+      <c r="Y2" s="82" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z2" s="82" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA2" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="AB2" s="18" t="s">
         <v>90</v>
-      </c>
-      <c r="AA2" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB2" s="18" t="s">
-        <v>43</v>
       </c>
       <c r="AC2" s="18" t="s">
         <v>43</v>
@@ -7058,8 +8868,14 @@
       <c r="AQ2" s="18" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR2" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS2" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>29</v>
       </c>
@@ -7108,9 +8924,7 @@
       <c r="P3" s="10">
         <v>326666666.66666669</v>
       </c>
-      <c r="Q3" s="10">
-        <v>702200</v>
-      </c>
+      <c r="Q3" s="10"/>
       <c r="R3" s="25">
         <v>0.9</v>
       </c>
@@ -7132,17 +8946,15 @@
       <c r="X3" s="52">
         <v>1197</v>
       </c>
-      <c r="Y3" s="51">
+      <c r="Y3" s="52">
+        <v>500</v>
+      </c>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="51">
         <v>2000000</v>
       </c>
-      <c r="Z3" s="53">
+      <c r="AB3" s="53">
         <v>175000</v>
-      </c>
-      <c r="AA3" s="18">
-        <v>639</v>
-      </c>
-      <c r="AB3" s="18">
-        <v>639</v>
       </c>
       <c r="AC3" s="18">
         <v>639</v>
@@ -7189,8 +9001,14 @@
       <c r="AQ3" s="18">
         <v>639</v>
       </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR3" s="18">
+        <v>639</v>
+      </c>
+      <c r="AS3" s="18">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>30</v>
       </c>
@@ -7237,9 +9055,6 @@
       <c r="P4" s="18">
         <v>60000000</v>
       </c>
-      <c r="Q4" s="18" t="s">
-        <v>26</v>
-      </c>
       <c r="R4" s="18" t="s">
         <v>26</v>
       </c>
@@ -7261,18 +9076,15 @@
       <c r="X4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="Y4" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z4" s="54">
+      <c r="Y4" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB4" s="54">
         <v>100000</v>
       </c>
-      <c r="AA4" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB4" s="18" t="s">
-        <v>26</v>
-      </c>
       <c r="AC4" s="18" t="s">
         <v>26</v>
       </c>
@@ -7318,8 +9130,14 @@
       <c r="AQ4" s="18" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS4" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>31</v>
       </c>
@@ -7366,9 +9184,6 @@
       <c r="P5" s="18">
         <v>720000000</v>
       </c>
-      <c r="Q5" s="18" t="s">
-        <v>26</v>
-      </c>
       <c r="R5" s="18" t="s">
         <v>26</v>
       </c>
@@ -7390,18 +9205,15 @@
       <c r="X5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="Y5" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z5" s="54">
+      <c r="Y5" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB5" s="54">
         <v>300000</v>
       </c>
-      <c r="AA5" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB5" s="18" t="s">
-        <v>26</v>
-      </c>
       <c r="AC5" s="18" t="s">
         <v>26</v>
       </c>
@@ -7447,8 +9259,14 @@
       <c r="AQ5" s="18" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS5" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>58</v>
       </c>
@@ -7494,9 +9312,6 @@
       <c r="P6" s="18">
         <v>2001</v>
       </c>
-      <c r="Q6" s="18" t="s">
-        <v>86</v>
-      </c>
       <c r="R6" s="18">
         <v>2015</v>
       </c>
@@ -7519,16 +9334,14 @@
         <v>2000</v>
       </c>
       <c r="Y6" s="20">
+        <v>2010</v>
+      </c>
+      <c r="Z6" s="88"/>
+      <c r="AA6" s="20">
         <v>2001</v>
       </c>
-      <c r="Z6" s="18" t="s">
+      <c r="AB6" s="18" t="s">
         <v>102</v>
-      </c>
-      <c r="AA6" s="20">
-        <v>2010</v>
-      </c>
-      <c r="AB6" s="20">
-        <v>2010</v>
       </c>
       <c r="AC6" s="20">
         <v>2010</v>
@@ -7575,8 +9388,14 @@
       <c r="AQ6" s="20">
         <v>2010</v>
       </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR6" s="20">
+        <v>2010</v>
+      </c>
+      <c r="AS6" s="20">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>59</v>
       </c>
@@ -7622,9 +9441,6 @@
       <c r="P7" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="Q7" s="18" t="s">
-        <v>87</v>
-      </c>
       <c r="R7" s="18" t="s">
         <v>88</v>
       </c>
@@ -7649,14 +9465,12 @@
       <c r="Y7" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="Z7" s="18" t="s">
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="AA7" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB7" s="20" t="s">
-        <v>82</v>
+      <c r="AB7" s="18" t="s">
+        <v>60</v>
       </c>
       <c r="AC7" s="20" t="s">
         <v>82</v>
@@ -7703,12 +9517,18 @@
       <c r="AQ7" s="20" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="8" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AR7" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS7" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="X8" s="20"/>
       <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
-      <c r="AB8" s="20"/>
       <c r="AC8" s="20"/>
       <c r="AD8" s="20"/>
       <c r="AE8" s="20"/>
@@ -7724,1381 +9544,2327 @@
       <c r="AO8" s="20"/>
       <c r="AP8" s="20"/>
       <c r="AQ8" s="20"/>
-    </row>
-    <row r="9" spans="1:43" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
+      <c r="AR8" s="20"/>
+      <c r="AS8" s="20"/>
+    </row>
+    <row r="9" spans="1:45" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="X9" s="63"/>
-      <c r="Y9" s="63"/>
-      <c r="AA9" s="63"/>
-      <c r="AB9" s="63"/>
-      <c r="AC9" s="63"/>
-      <c r="AD9" s="63"/>
-      <c r="AE9" s="63"/>
-      <c r="AF9" s="63"/>
-      <c r="AG9" s="63"/>
-      <c r="AH9" s="63"/>
-      <c r="AI9" s="63"/>
-      <c r="AJ9" s="63"/>
-      <c r="AK9" s="63"/>
-      <c r="AL9" s="63"/>
-      <c r="AM9" s="63"/>
-      <c r="AN9" s="63"/>
-      <c r="AO9" s="63"/>
-      <c r="AP9" s="63"/>
-      <c r="AQ9" s="63"/>
-    </row>
-    <row r="10" spans="1:43" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="64" t="s">
+      <c r="X9" s="62"/>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="62"/>
+      <c r="AC9" s="62"/>
+      <c r="AD9" s="62"/>
+      <c r="AE9" s="62"/>
+      <c r="AF9" s="62"/>
+      <c r="AG9" s="62"/>
+      <c r="AH9" s="62"/>
+      <c r="AI9" s="62"/>
+      <c r="AJ9" s="62"/>
+      <c r="AK9" s="62"/>
+      <c r="AL9" s="62"/>
+      <c r="AM9" s="62"/>
+      <c r="AN9" s="62"/>
+      <c r="AO9" s="62"/>
+      <c r="AP9" s="62"/>
+      <c r="AQ9" s="62"/>
+      <c r="AR9" s="62"/>
+      <c r="AS9" s="62"/>
+    </row>
+    <row r="10" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="63" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:43" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="66" t="s">
+    <row r="11" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="65" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:43" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="66" t="s">
+    <row r="12" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="65" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:43" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="66" t="s">
+    <row r="13" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="65" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:43" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="66" t="s">
+    <row r="14" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="65" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:43" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="70" t="s">
+    <row r="15" spans="1:45" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="70">
+      <c r="B15" s="69">
         <v>17.600000000000001</v>
       </c>
-      <c r="C15" s="70">
+      <c r="C15" s="69">
         <v>17.600000000000001</v>
       </c>
-      <c r="D15" s="70">
+      <c r="D15" s="69">
         <v>17.600000000000001</v>
       </c>
-      <c r="E15" s="71">
+      <c r="E15" s="70">
         <v>33.9</v>
       </c>
-      <c r="F15" s="71">
+      <c r="F15" s="70">
         <v>33.9</v>
       </c>
-      <c r="G15" s="71">
+      <c r="G15" s="70">
         <v>-12.8</v>
       </c>
-      <c r="H15" s="71">
+      <c r="H15" s="70">
         <v>-12.8</v>
       </c>
-      <c r="I15" s="71">
+      <c r="I15" s="70">
         <v>33.9</v>
       </c>
-      <c r="J15" s="71">
+      <c r="J15" s="70">
         <v>33.9</v>
       </c>
-      <c r="K15" s="71">
+      <c r="K15" s="70">
         <v>33.9</v>
       </c>
-      <c r="L15" s="71">
+      <c r="L15" s="70">
         <v>33.9</v>
       </c>
-      <c r="N15" s="70">
+      <c r="N15" s="69">
         <f>(3.34+4.82+3.73+2.61+2.35+1.43)/6</f>
         <v>3.0466666666666669</v>
       </c>
-      <c r="O15" s="70">
+      <c r="O15" s="69">
         <f>(3.34+4.82+3.73+2.61+2.35+1.43)/6</f>
         <v>3.0466666666666669</v>
       </c>
-      <c r="P15" s="71">
+      <c r="P15" s="70">
         <v>33.9</v>
       </c>
-      <c r="Q15" s="70">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="R15" s="70" t="s">
+      <c r="R15" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="S15" s="70" t="s">
+      <c r="S15" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="T15" s="70" t="s">
+      <c r="T15" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="U15" s="70" t="s">
+      <c r="U15" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="V15" s="70" t="s">
+      <c r="V15" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="W15" s="70" t="s">
+      <c r="W15" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="X15" s="70">
+      <c r="X15" s="69">
         <v>34</v>
       </c>
-      <c r="Y15" s="71">
+      <c r="Y15" s="69">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AA15" s="70">
         <v>33.9</v>
       </c>
-      <c r="Z15" s="70">
+      <c r="AB15" s="69">
         <v>-5.6</v>
       </c>
-      <c r="AA15" s="70">
+      <c r="AC15" s="69">
         <f>(3.34+4.82+3.73+2.61+2.35+1.43)/6</f>
         <v>3.0466666666666669</v>
       </c>
-      <c r="AB15" s="70">
-        <f t="shared" ref="AB15:AQ15" si="0">(3.34+4.82+3.73+2.61+2.35+1.43)/6</f>
+      <c r="AD15" s="69">
+        <f t="shared" ref="AD15:AS15" si="0">(3.34+4.82+3.73+2.61+2.35+1.43)/6</f>
         <v>3.0466666666666669</v>
       </c>
-      <c r="AC15" s="70">
+      <c r="AE15" s="69">
         <f t="shared" si="0"/>
         <v>3.0466666666666669</v>
       </c>
-      <c r="AD15" s="70">
+      <c r="AF15" s="69">
         <f t="shared" si="0"/>
         <v>3.0466666666666669</v>
       </c>
-      <c r="AE15" s="70">
+      <c r="AG15" s="69">
         <f t="shared" si="0"/>
         <v>3.0466666666666669</v>
       </c>
-      <c r="AF15" s="70">
+      <c r="AH15" s="69">
         <f t="shared" si="0"/>
         <v>3.0466666666666669</v>
       </c>
-      <c r="AG15" s="70">
+      <c r="AI15" s="69">
         <f t="shared" si="0"/>
         <v>3.0466666666666669</v>
       </c>
-      <c r="AH15" s="70">
+      <c r="AJ15" s="69">
         <f t="shared" si="0"/>
         <v>3.0466666666666669</v>
       </c>
-      <c r="AI15" s="70">
+      <c r="AK15" s="69">
         <f t="shared" si="0"/>
         <v>3.0466666666666669</v>
       </c>
-      <c r="AJ15" s="70">
+      <c r="AL15" s="69">
         <f t="shared" si="0"/>
         <v>3.0466666666666669</v>
       </c>
-      <c r="AK15" s="70">
+      <c r="AM15" s="69">
         <f t="shared" si="0"/>
         <v>3.0466666666666669</v>
       </c>
-      <c r="AL15" s="70">
+      <c r="AN15" s="69">
         <f t="shared" si="0"/>
         <v>3.0466666666666669</v>
       </c>
-      <c r="AM15" s="70">
+      <c r="AO15" s="69">
         <f t="shared" si="0"/>
         <v>3.0466666666666669</v>
       </c>
-      <c r="AN15" s="70">
+      <c r="AP15" s="69">
         <f t="shared" si="0"/>
         <v>3.0466666666666669</v>
       </c>
-      <c r="AO15" s="70">
+      <c r="AQ15" s="69">
         <f t="shared" si="0"/>
         <v>3.0466666666666669</v>
       </c>
-      <c r="AP15" s="70">
+      <c r="AR15" s="69">
         <f t="shared" si="0"/>
         <v>3.0466666666666669</v>
       </c>
-      <c r="AQ15" s="70">
+      <c r="AS15" s="69">
         <f t="shared" si="0"/>
         <v>3.0466666666666669</v>
       </c>
     </row>
-    <row r="16" spans="1:43" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="72" t="s">
+    <row r="16" spans="1:45" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="72">
+      <c r="B16" s="71">
         <f>B3*(($B$15/100)+1)</f>
         <v>9542497.1599999983</v>
       </c>
-      <c r="C16" s="72">
+      <c r="C16" s="71">
         <f>C3*(($C$15/100)+1)</f>
         <v>2576028</v>
       </c>
-      <c r="D16" s="72">
+      <c r="D16" s="71">
         <f>D3*(($D$15/100)+1)</f>
         <v>1430444.064</v>
       </c>
-      <c r="E16" s="72">
+      <c r="E16" s="71">
         <f>E3*(($E$15/100)+1)</f>
         <v>490966666.66666669</v>
       </c>
-      <c r="F16" s="72">
+      <c r="F16" s="71">
         <f>F3*(($F$15/100)+1)</f>
         <v>35706666.666666664</v>
       </c>
-      <c r="G16" s="72">
+      <c r="G16" s="71">
         <f>G3*(($G$15/100)+1)</f>
         <v>223896.42766666668</v>
       </c>
-      <c r="H16" s="72">
+      <c r="H16" s="71">
         <f>H3*(($H$15/100)+1)</f>
         <v>39468.318666666666</v>
       </c>
-      <c r="I16" s="72">
+      <c r="I16" s="71">
         <f>I3*(($I$15/100)+1)</f>
         <v>1071200</v>
       </c>
-      <c r="J16" s="72">
+      <c r="J16" s="71">
         <f>J3*(($J$15/100)+1)</f>
         <v>535600</v>
       </c>
-      <c r="K16" s="72">
+      <c r="K16" s="71">
         <f>K3*(($K$15/100)+1)</f>
         <v>1239914</v>
       </c>
-      <c r="L16" s="72">
+      <c r="L16" s="71">
         <f>L3*(($L$15/100)+1)</f>
         <v>218703333.33333334</v>
       </c>
-      <c r="N16" s="72">
+      <c r="N16" s="71">
         <f>N3*((N15/100)+1)</f>
         <v>559.54340000000002</v>
       </c>
-      <c r="O16" s="72">
+      <c r="O16" s="71">
         <f>O3*((O15/100)+1)</f>
         <v>559.54340000000002</v>
       </c>
-      <c r="P16" s="72">
+      <c r="P16" s="71">
         <f>P3*(($P$15/100)+1)</f>
         <v>437406666.66666669</v>
       </c>
-      <c r="Q16" s="72">
-        <f>Q3*((Q15/100)+1)</f>
-        <v>843342.20000000007</v>
-      </c>
-      <c r="R16" s="73">
+      <c r="R16" s="72">
         <f t="shared" ref="R16:W18" si="1">R3</f>
         <v>0.9</v>
       </c>
-      <c r="S16" s="73">
+      <c r="S16" s="72">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="T16" s="73">
+      <c r="T16" s="72">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="U16" s="73">
+      <c r="U16" s="72">
         <f t="shared" si="1"/>
         <v>0.22500000000000001</v>
       </c>
-      <c r="V16" s="73">
+      <c r="V16" s="72">
         <f t="shared" si="1"/>
         <v>0.17499999999999999</v>
       </c>
-      <c r="W16" s="73">
+      <c r="W16" s="72">
         <f t="shared" si="1"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="X16" s="72">
+      <c r="X16" s="71">
         <f>X3*((X15/100)+1)</f>
         <v>1603.98</v>
       </c>
-      <c r="Y16" s="72">
+      <c r="Y16" s="71">
         <f>Y3*(($Y$15/100)+1)</f>
+        <v>543.5</v>
+      </c>
+      <c r="AA16" s="71">
+        <f>AA3*(($AA$15/100)+1)</f>
         <v>2678000</v>
       </c>
-      <c r="Z16" s="72">
-        <f>Z3*(($Z$15/100)+1)</f>
+      <c r="AB16" s="71">
+        <f>AB3*(($AB$15/100)+1)</f>
         <v>165200</v>
       </c>
-      <c r="AA16" s="72">
-        <f>AA3*((AA15/100)+1)</f>
+      <c r="AC16" s="71">
+        <f>AC3*((AC15/100)+1)</f>
         <v>658.46820000000002</v>
       </c>
-      <c r="AB16" s="72">
-        <f t="shared" ref="AB16:AQ16" si="2">AB3*((AB15/100)+1)</f>
+      <c r="AD16" s="71">
+        <f t="shared" ref="AD16:AS16" si="2">AD3*((AD15/100)+1)</f>
         <v>658.46820000000002</v>
       </c>
-      <c r="AC16" s="72">
+      <c r="AE16" s="71">
         <f t="shared" si="2"/>
         <v>658.46820000000002</v>
       </c>
-      <c r="AD16" s="72">
+      <c r="AF16" s="71">
         <f t="shared" si="2"/>
         <v>658.46820000000002</v>
       </c>
-      <c r="AE16" s="72">
+      <c r="AG16" s="71">
         <f t="shared" si="2"/>
         <v>658.46820000000002</v>
       </c>
-      <c r="AF16" s="72">
+      <c r="AH16" s="71">
         <f t="shared" si="2"/>
         <v>658.46820000000002</v>
       </c>
-      <c r="AG16" s="72">
+      <c r="AI16" s="71">
         <f t="shared" si="2"/>
         <v>658.46820000000002</v>
       </c>
-      <c r="AH16" s="72">
+      <c r="AJ16" s="71">
         <f t="shared" si="2"/>
         <v>658.46820000000002</v>
       </c>
-      <c r="AI16" s="72">
+      <c r="AK16" s="71">
         <f t="shared" si="2"/>
         <v>658.46820000000002</v>
       </c>
-      <c r="AJ16" s="72">
+      <c r="AL16" s="71">
         <f t="shared" si="2"/>
         <v>658.46820000000002</v>
       </c>
-      <c r="AK16" s="72">
+      <c r="AM16" s="71">
         <f t="shared" si="2"/>
         <v>658.46820000000002</v>
       </c>
-      <c r="AL16" s="72">
+      <c r="AN16" s="71">
         <f t="shared" si="2"/>
         <v>658.46820000000002</v>
       </c>
-      <c r="AM16" s="72">
+      <c r="AO16" s="71">
         <f t="shared" si="2"/>
         <v>658.46820000000002</v>
       </c>
-      <c r="AN16" s="72">
+      <c r="AP16" s="71">
         <f t="shared" si="2"/>
         <v>658.46820000000002</v>
       </c>
-      <c r="AO16" s="72">
+      <c r="AQ16" s="71">
         <f t="shared" si="2"/>
         <v>658.46820000000002</v>
       </c>
-      <c r="AP16" s="72">
+      <c r="AR16" s="71">
         <f t="shared" si="2"/>
         <v>658.46820000000002</v>
       </c>
-      <c r="AQ16" s="72">
+      <c r="AS16" s="71">
         <f t="shared" si="2"/>
         <v>658.46820000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:43" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="72" t="s">
+    <row r="17" spans="1:45" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="72">
+      <c r="B17" s="71">
         <f>B4*(($B$15/100)+1)</f>
         <v>1293600</v>
       </c>
-      <c r="C17" s="72">
+      <c r="C17" s="71">
         <f>C4*(($C$15/100)+1)</f>
         <v>382200</v>
       </c>
-      <c r="D17" s="72">
+      <c r="D17" s="71">
         <f>D4*(($D$15/100)+1)</f>
         <v>176400</v>
       </c>
-      <c r="E17" s="72">
+      <c r="E17" s="71">
         <f>E4*(($E$15/100)+1)</f>
         <v>133900000</v>
       </c>
-      <c r="F17" s="72">
+      <c r="F17" s="71">
         <f>F4*(($F$15/100)+1)</f>
         <v>13390000</v>
       </c>
-      <c r="G17" s="72">
+      <c r="G17" s="71">
         <f>G4*(($G$15/100)+1)</f>
         <v>39383.008000000002</v>
       </c>
-      <c r="H17" s="72">
+      <c r="H17" s="71">
         <f>H4*(($H$15/100)+1)</f>
         <v>18782.008000000002</v>
       </c>
-      <c r="I17" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="K17" s="72">
+      <c r="I17" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="71">
         <f>K4*(($K$15/100)+1)</f>
         <v>40170</v>
       </c>
-      <c r="L17" s="72">
+      <c r="L17" s="71">
         <f>L4*(($L$15/100)+1)</f>
         <v>40170000</v>
       </c>
-      <c r="N17" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="O17" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="P17" s="72">
+      <c r="N17" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="O17" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" s="71">
         <f>P4*(($P$15/100)+1)</f>
         <v>80340000</v>
       </c>
-      <c r="Q17" s="73" t="str">
-        <f>Q4</f>
-        <v>n/a</v>
-      </c>
-      <c r="R17" s="73" t="str">
+      <c r="Q17" s="72"/>
+      <c r="R17" s="72" t="str">
         <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
-      <c r="S17" s="73" t="str">
+      <c r="S17" s="72" t="str">
         <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
-      <c r="T17" s="73" t="str">
+      <c r="T17" s="72" t="str">
         <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
-      <c r="U17" s="73" t="str">
+      <c r="U17" s="72" t="str">
         <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
-      <c r="V17" s="73" t="str">
+      <c r="V17" s="72" t="str">
         <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
-      <c r="W17" s="73" t="str">
+      <c r="W17" s="72" t="str">
         <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
-      <c r="X17" s="73" t="str">
+      <c r="X17" s="72" t="str">
         <f>X4</f>
         <v>n/a</v>
       </c>
-      <c r="Y17" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z17" s="74">
+      <c r="Y17" s="72" t="str">
+        <f>Y4</f>
+        <v>n/a</v>
+      </c>
+      <c r="Z17" s="72"/>
+      <c r="AA17" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB17" s="73">
         <v>100000</v>
       </c>
-      <c r="AA17" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB17" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC17" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD17" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE17" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF17" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG17" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH17" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI17" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ17" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK17" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL17" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM17" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="AN17" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="AO17" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="AP17" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="AQ17" s="72" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:43" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="72" t="s">
+      <c r="AC17" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD17" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE17" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF17" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG17" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH17" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI17" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ17" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK17" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL17" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM17" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN17" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO17" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP17" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ17" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR17" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS17" s="71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="72">
+      <c r="B18" s="71">
         <f>B5*(($B$15/100)+1)</f>
         <v>27048000</v>
       </c>
-      <c r="C18" s="72">
+      <c r="C18" s="71">
         <f>C5*(($C$15/100)+1)</f>
         <v>5880000</v>
       </c>
-      <c r="D18" s="72">
+      <c r="D18" s="71">
         <f>D5*(($D$15/100)+1)</f>
         <v>2681280</v>
       </c>
-      <c r="E18" s="72">
+      <c r="E18" s="71">
         <f>E5*(($E$15/100)+1)</f>
         <v>669500000</v>
       </c>
-      <c r="F18" s="72">
+      <c r="F18" s="71">
         <f>F5*(($F$15/100)+1)</f>
         <v>66950000</v>
       </c>
-      <c r="G18" s="72">
+      <c r="G18" s="71">
         <f>G5*(($G$15/100)+1)</f>
         <v>761092.93599999999</v>
       </c>
-      <c r="H18" s="72">
+      <c r="H18" s="71">
         <f>H5*(($H$15/100)+1)</f>
         <v>62284.343999999997</v>
       </c>
-      <c r="I18" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="K18" s="72">
+      <c r="I18" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="71">
         <f>K5*(($K$15/100)+1)</f>
         <v>2008500</v>
       </c>
-      <c r="L18" s="72">
+      <c r="L18" s="71">
         <f>L5*(($L$15/100)+1)</f>
         <v>482040000</v>
       </c>
-      <c r="N18" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="O18" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="P18" s="72">
+      <c r="N18" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" s="71">
         <f>P5*(($P$15/100)+1)</f>
         <v>964080000</v>
       </c>
-      <c r="Q18" s="73" t="str">
-        <f>Q5</f>
-        <v>n/a</v>
-      </c>
-      <c r="R18" s="73" t="str">
+      <c r="Q18" s="72"/>
+      <c r="R18" s="72" t="str">
         <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
-      <c r="S18" s="73" t="str">
+      <c r="S18" s="72" t="str">
         <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
-      <c r="T18" s="73" t="str">
+      <c r="T18" s="72" t="str">
         <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
-      <c r="U18" s="73" t="str">
+      <c r="U18" s="72" t="str">
         <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
-      <c r="V18" s="73" t="str">
+      <c r="V18" s="72" t="str">
         <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
-      <c r="W18" s="73" t="str">
+      <c r="W18" s="72" t="str">
         <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
-      <c r="X18" s="73" t="str">
+      <c r="X18" s="72" t="str">
         <f>X5</f>
         <v>n/a</v>
       </c>
-      <c r="Y18" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z18" s="74">
+      <c r="Y18" s="72" t="str">
+        <f>Y5</f>
+        <v>n/a</v>
+      </c>
+      <c r="Z18" s="72"/>
+      <c r="AA18" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB18" s="73">
         <v>300000</v>
       </c>
-      <c r="AA18" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB18" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC18" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD18" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE18" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF18" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG18" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH18" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI18" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ18" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK18" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL18" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM18" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="AN18" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="AO18" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="AP18" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="AQ18" s="72" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:43" s="69" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="68"/>
-    </row>
-    <row r="21" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:43" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="61" t="s">
+      <c r="AC18" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD18" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE18" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF18" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG18" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH18" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI18" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ18" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK18" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL18" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM18" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN18" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO18" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP18" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ18" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR18" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS18" s="71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45" s="68" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="67"/>
+    </row>
+    <row r="21" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:45" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="60" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:43" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="64" t="s">
+    <row r="23" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="63" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:43" s="65" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="67"/>
-    </row>
-    <row r="25" spans="1:43" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="67"/>
-      <c r="C25" s="75" t="s">
+    <row r="24" spans="1:45" s="64" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="66"/>
+    </row>
+    <row r="25" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="66"/>
+      <c r="C25" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="76"/>
-    </row>
-    <row r="26" spans="1:43" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="65" t="s">
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="75"/>
+    </row>
+    <row r="26" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="65">
+      <c r="E26" s="64">
         <v>1609.3440000000001</v>
       </c>
-      <c r="F26" s="65" t="s">
+      <c r="F26" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="H26" s="77"/>
-    </row>
-    <row r="27" spans="1:43" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="65" t="s">
+      <c r="H26" s="76"/>
+    </row>
+    <row r="27" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="H27" s="77"/>
-    </row>
-    <row r="28" spans="1:43" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="65">
+      <c r="H27" s="76"/>
+    </row>
+    <row r="28" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="64">
         <v>2015</v>
       </c>
-      <c r="E28" s="65">
+      <c r="E28" s="64">
         <f>1.109729</f>
         <v>1.109729</v>
       </c>
-      <c r="H28" s="77"/>
-    </row>
-    <row r="29" spans="1:43" s="65" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="67"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="78" t="s">
+      <c r="H28" s="76"/>
+    </row>
+    <row r="29" spans="1:45" s="64" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="66"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="78"/>
-    </row>
-    <row r="30" spans="1:43" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="67"/>
-    </row>
-    <row r="31" spans="1:43" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="79" t="s">
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="77"/>
+    </row>
+    <row r="30" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="66"/>
+    </row>
+    <row r="31" spans="1:45" s="78" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="79" t="s">
+      <c r="B31" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="79" t="s">
+      <c r="C31" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="79" t="s">
+      <c r="D31" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="79" t="s">
+      <c r="E31" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="F31" s="79" t="s">
+      <c r="F31" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="G31" s="79" t="s">
+      <c r="G31" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="H31" s="79" t="s">
+      <c r="H31" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="I31" s="79" t="s">
+      <c r="I31" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="J31" s="79" t="s">
+      <c r="J31" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="K31" s="79" t="s">
+      <c r="K31" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="L31" s="79" t="s">
+      <c r="L31" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="N31" s="79" t="s">
+      <c r="N31" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="O31" s="79" t="s">
+      <c r="O31" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="P31" s="79" t="s">
+      <c r="P31" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="Q31" s="79" t="s">
+      <c r="Q31" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="R31" s="79" t="s">
+      <c r="R31" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="S31" s="79" t="s">
+      <c r="S31" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="T31" s="79" t="s">
+      <c r="T31" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="U31" s="79" t="s">
+      <c r="U31" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="V31" s="79" t="s">
+      <c r="V31" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="W31" s="79" t="s">
+      <c r="W31" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="X31" s="79" t="s">
+      <c r="X31" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="Y31" s="79" t="s">
+      <c r="Y31" s="78" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z31" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA31" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="Z31" s="79" t="s">
+      <c r="AB31" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="AA31" s="79" t="s">
+      <c r="AC31" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="AB31" s="79" t="s">
+      <c r="AD31" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="AC31" s="79" t="s">
+      <c r="AE31" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="AD31" s="79" t="s">
+      <c r="AF31" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="AE31" s="79" t="s">
+      <c r="AG31" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="AF31" s="79" t="s">
+      <c r="AH31" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="AG31" s="79" t="s">
+      <c r="AI31" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="AH31" s="79" t="s">
+      <c r="AJ31" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="AI31" s="79" t="s">
+      <c r="AK31" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="AJ31" s="79" t="s">
+      <c r="AL31" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="AK31" s="79" t="s">
+      <c r="AM31" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="AL31" s="79" t="s">
+      <c r="AN31" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="AM31" s="79" t="s">
+      <c r="AO31" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="AN31" s="79" t="s">
+      <c r="AP31" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="AO31" s="79" t="s">
+      <c r="AQ31" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="AP31" s="79" t="s">
+      <c r="AR31" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="AQ31" s="79" t="s">
+      <c r="AS31" s="78" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:43" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="72" t="s">
+    <row r="32" spans="1:45" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="80">
+      <c r="B32" s="79">
         <f>(B16/$E$26)/$E$28</f>
         <v>5343.1358802289315</v>
       </c>
-      <c r="C32" s="80">
+      <c r="C32" s="79">
         <f t="shared" ref="C32:D32" si="3">(C16/$E$26)/$E$28</f>
         <v>1442.3968280514925</v>
       </c>
-      <c r="D32" s="80">
+      <c r="D32" s="79">
         <f t="shared" si="3"/>
         <v>800.94936103904399</v>
       </c>
-      <c r="E32" s="80">
+      <c r="E32" s="79">
         <f>E16/$E$28</f>
         <v>442420326.64431292</v>
       </c>
-      <c r="F32" s="80">
-        <f t="shared" ref="F32:L32" si="4">F16/$E$28</f>
+      <c r="F32" s="79">
+        <f>F16/$E$28</f>
         <v>32176023.755950026</v>
       </c>
-      <c r="G32" s="80">
-        <f t="shared" si="4"/>
+      <c r="G32" s="79">
+        <f t="shared" ref="G32:L32" si="4">G16/$E$28</f>
         <v>201757.75136692534</v>
       </c>
-      <c r="H32" s="80">
+      <c r="H32" s="79">
         <f t="shared" si="4"/>
         <v>35565.727007825037</v>
       </c>
-      <c r="I32" s="80">
+      <c r="I32" s="79">
         <f t="shared" si="4"/>
         <v>965280.7126785008</v>
       </c>
-      <c r="J32" s="80">
+      <c r="J32" s="79">
         <f t="shared" si="4"/>
         <v>482640.3563392504</v>
       </c>
-      <c r="K32" s="80">
+      <c r="K32" s="79">
         <f t="shared" si="4"/>
         <v>1117312.4249253648</v>
       </c>
-      <c r="L32" s="80">
+      <c r="L32" s="79">
         <f t="shared" si="4"/>
         <v>197078145.50519392</v>
       </c>
-      <c r="N32" s="72">
+      <c r="N32" s="71">
         <f>N16</f>
         <v>559.54340000000002</v>
       </c>
-      <c r="O32" s="72">
+      <c r="O32" s="71">
         <f>O16</f>
         <v>559.54340000000002</v>
       </c>
-      <c r="P32" s="80">
+      <c r="P32" s="79">
         <f>P16/$E$28</f>
         <v>394156291.01038784</v>
       </c>
-      <c r="Q32" s="80">
-        <f>Q16/100</f>
-        <v>8433.4220000000005</v>
-      </c>
-      <c r="R32" s="80">
+      <c r="Q32" s="79">
+        <v>1104.8330000000001</v>
+      </c>
+      <c r="R32" s="79">
         <f>R16*1000000/1000</f>
         <v>900</v>
       </c>
-      <c r="S32" s="80">
+      <c r="S32" s="79">
         <f t="shared" ref="S32:W32" si="5">S16*1000000/1000</f>
         <v>600</v>
       </c>
-      <c r="T32" s="80">
+      <c r="T32" s="79">
         <f t="shared" si="5"/>
         <v>250</v>
       </c>
-      <c r="U32" s="80">
+      <c r="U32" s="79">
         <f t="shared" si="5"/>
         <v>225</v>
       </c>
-      <c r="V32" s="80">
+      <c r="V32" s="79">
         <f t="shared" si="5"/>
         <v>175</v>
       </c>
-      <c r="W32" s="80">
+      <c r="W32" s="79">
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
-      <c r="X32" s="80">
+      <c r="X32" s="79">
         <f>X3</f>
         <v>1197</v>
       </c>
-      <c r="Y32" s="80">
-        <f>Y16/$E$28</f>
+      <c r="Y32" s="79">
+        <f>Y16/E28</f>
+        <v>489.75921148316394</v>
+      </c>
+      <c r="Z32" s="79">
+        <v>7369.11004100235</v>
+      </c>
+      <c r="AA32" s="79">
+        <f>AA16/$E$28</f>
         <v>2413201.7816962521</v>
       </c>
-      <c r="Z32" s="80">
-        <f>Z16/$E$28</f>
+      <c r="AB32" s="79">
+        <f>AB16/$E$28</f>
         <v>148865.17338917882</v>
       </c>
-      <c r="AA32" s="80">
-        <f>AA16</f>
+      <c r="AC32" s="79">
+        <f>AC16</f>
         <v>658.46820000000002</v>
       </c>
-      <c r="AB32" s="80">
-        <f t="shared" ref="AB32:AQ32" si="6">AA16</f>
+      <c r="AD32" s="79">
+        <f t="shared" ref="AD32:AS32" si="6">AC16</f>
         <v>658.46820000000002</v>
       </c>
-      <c r="AC32" s="80">
+      <c r="AE32" s="79">
         <f t="shared" si="6"/>
         <v>658.46820000000002</v>
       </c>
-      <c r="AD32" s="80">
+      <c r="AF32" s="79">
         <f t="shared" si="6"/>
         <v>658.46820000000002</v>
       </c>
-      <c r="AE32" s="80">
+      <c r="AG32" s="79">
         <f t="shared" si="6"/>
         <v>658.46820000000002</v>
       </c>
-      <c r="AF32" s="80">
+      <c r="AH32" s="79">
         <f t="shared" si="6"/>
         <v>658.46820000000002</v>
       </c>
-      <c r="AG32" s="80">
+      <c r="AI32" s="79">
         <f t="shared" si="6"/>
         <v>658.46820000000002</v>
       </c>
-      <c r="AH32" s="80">
+      <c r="AJ32" s="79">
         <f t="shared" si="6"/>
         <v>658.46820000000002</v>
       </c>
-      <c r="AI32" s="80">
+      <c r="AK32" s="79">
         <f t="shared" si="6"/>
         <v>658.46820000000002</v>
       </c>
-      <c r="AJ32" s="80">
+      <c r="AL32" s="79">
         <f t="shared" si="6"/>
         <v>658.46820000000002</v>
       </c>
-      <c r="AK32" s="80">
+      <c r="AM32" s="79">
         <f t="shared" si="6"/>
         <v>658.46820000000002</v>
       </c>
-      <c r="AL32" s="80">
+      <c r="AN32" s="79">
         <f t="shared" si="6"/>
         <v>658.46820000000002</v>
       </c>
-      <c r="AM32" s="80">
+      <c r="AO32" s="79">
         <f t="shared" si="6"/>
         <v>658.46820000000002</v>
       </c>
-      <c r="AN32" s="80">
+      <c r="AP32" s="79">
         <f t="shared" si="6"/>
         <v>658.46820000000002</v>
       </c>
-      <c r="AO32" s="80">
+      <c r="AQ32" s="79">
         <f t="shared" si="6"/>
         <v>658.46820000000002</v>
       </c>
-      <c r="AP32" s="80">
+      <c r="AR32" s="79">
         <f t="shared" si="6"/>
         <v>658.46820000000002</v>
       </c>
-      <c r="AQ32" s="80">
+      <c r="AS32" s="79">
         <f t="shared" si="6"/>
         <v>658.46820000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:43" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="72" t="s">
+    <row r="33" spans="1:45" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="80">
+      <c r="B33" s="79">
         <f t="shared" ref="B33:D34" si="7">(B17/$E$26)/$E$28</f>
         <v>724.32618619339962</v>
       </c>
-      <c r="C33" s="80">
+      <c r="C33" s="79">
         <f t="shared" si="7"/>
         <v>214.00546410259537</v>
       </c>
-      <c r="D33" s="80">
+      <c r="D33" s="79">
         <f>(D17/$E$26)/$E$28</f>
         <v>98.771752662736318</v>
       </c>
-      <c r="E33" s="80">
+      <c r="E33" s="79">
         <f t="shared" ref="E33:L34" si="8">E17/$E$28</f>
         <v>120660089.0848126</v>
       </c>
-      <c r="F33" s="80">
+      <c r="F33" s="79">
         <f t="shared" si="8"/>
         <v>12066008.908481261</v>
       </c>
-      <c r="G33" s="80">
+      <c r="G33" s="79">
         <f t="shared" si="8"/>
         <v>35488.851782732541</v>
       </c>
-      <c r="H33" s="80">
+      <c r="H33" s="79">
         <f t="shared" si="8"/>
         <v>16924.860033395544</v>
       </c>
-      <c r="I33" s="80">
+      <c r="I33" s="79">
         <f>I32*0.75</f>
         <v>723960.53450887557</v>
       </c>
-      <c r="J33" s="80">
+      <c r="J33" s="79">
         <f>J32*0.75</f>
         <v>361980.26725443779</v>
       </c>
-      <c r="K33" s="80">
+      <c r="K33" s="79">
         <f t="shared" si="8"/>
         <v>36198.026725443779</v>
       </c>
-      <c r="L33" s="80">
+      <c r="L33" s="79">
         <f t="shared" si="8"/>
         <v>36198026.72544378</v>
       </c>
-      <c r="N33" s="72">
+      <c r="N33" s="71">
         <f>N32*0.75</f>
         <v>419.65755000000001</v>
       </c>
-      <c r="O33" s="72">
+      <c r="O33" s="71">
         <f>O32*0.75</f>
         <v>419.65755000000001</v>
       </c>
-      <c r="P33" s="80">
+      <c r="P33" s="79">
         <f t="shared" ref="P33:P34" si="9">P17/$E$28</f>
         <v>72396053.450887561</v>
       </c>
-      <c r="Q33" s="80">
-        <f>Q32*0.75</f>
-        <v>6325.0665000000008</v>
-      </c>
-      <c r="R33" s="80">
+      <c r="Q33" s="79">
+        <f>Transport!K6</f>
+        <v>992.09536742754324</v>
+      </c>
+      <c r="R33" s="79">
         <f>R32*0.75</f>
         <v>675</v>
       </c>
-      <c r="S33" s="80">
+      <c r="S33" s="79">
         <f t="shared" ref="S33:W33" si="10">S32*0.75</f>
         <v>450</v>
       </c>
-      <c r="T33" s="80">
+      <c r="T33" s="79">
         <f t="shared" si="10"/>
         <v>187.5</v>
       </c>
-      <c r="U33" s="80">
+      <c r="U33" s="79">
         <f t="shared" si="10"/>
         <v>168.75</v>
       </c>
-      <c r="V33" s="80">
+      <c r="V33" s="79">
         <f t="shared" si="10"/>
         <v>131.25</v>
       </c>
-      <c r="W33" s="80">
+      <c r="W33" s="79">
         <f t="shared" si="10"/>
         <v>56.25</v>
       </c>
-      <c r="X33" s="80">
+      <c r="X33" s="79">
         <f>X32*0.75</f>
         <v>897.75</v>
       </c>
-      <c r="Y33" s="80">
+      <c r="Y33" s="79">
         <f>Y32*0.75</f>
+        <v>367.31940861237297</v>
+      </c>
+      <c r="Z33" s="79">
+        <v>3973.0030421061233</v>
+      </c>
+      <c r="AA33" s="79">
+        <f>AA32*0.75</f>
         <v>1809901.3362721889</v>
       </c>
-      <c r="Z33" s="80">
-        <f>Z17/$E$28</f>
+      <c r="AB33" s="79">
+        <f>AB17/$E$28</f>
         <v>90112.090429284988</v>
       </c>
-      <c r="AA33" s="80">
-        <f t="shared" ref="AA33" si="11">AA32*0.75</f>
+      <c r="AC33" s="79">
+        <f t="shared" ref="AC33" si="11">AC32*0.75</f>
         <v>493.85115000000002</v>
       </c>
-      <c r="AB33" s="80">
-        <f t="shared" ref="AB33:AQ33" si="12">AB32*0.75</f>
+      <c r="AD33" s="79">
+        <f t="shared" ref="AD33:AS33" si="12">AD32*0.75</f>
         <v>493.85115000000002</v>
       </c>
-      <c r="AC33" s="80">
+      <c r="AE33" s="79">
         <f t="shared" si="12"/>
         <v>493.85115000000002</v>
       </c>
-      <c r="AD33" s="80">
+      <c r="AF33" s="79">
         <f t="shared" si="12"/>
         <v>493.85115000000002</v>
       </c>
-      <c r="AE33" s="80">
+      <c r="AG33" s="79">
         <f t="shared" si="12"/>
         <v>493.85115000000002</v>
       </c>
-      <c r="AF33" s="80">
+      <c r="AH33" s="79">
         <f t="shared" si="12"/>
         <v>493.85115000000002</v>
       </c>
-      <c r="AG33" s="80">
+      <c r="AI33" s="79">
         <f t="shared" si="12"/>
         <v>493.85115000000002</v>
       </c>
-      <c r="AH33" s="80">
+      <c r="AJ33" s="79">
         <f t="shared" si="12"/>
         <v>493.85115000000002</v>
       </c>
-      <c r="AI33" s="80">
+      <c r="AK33" s="79">
         <f t="shared" si="12"/>
         <v>493.85115000000002</v>
       </c>
-      <c r="AJ33" s="80">
+      <c r="AL33" s="79">
         <f t="shared" si="12"/>
         <v>493.85115000000002</v>
       </c>
-      <c r="AK33" s="80">
+      <c r="AM33" s="79">
         <f t="shared" si="12"/>
         <v>493.85115000000002</v>
       </c>
-      <c r="AL33" s="80">
+      <c r="AN33" s="79">
         <f t="shared" si="12"/>
         <v>493.85115000000002</v>
       </c>
-      <c r="AM33" s="80">
+      <c r="AO33" s="79">
         <f t="shared" si="12"/>
         <v>493.85115000000002</v>
       </c>
-      <c r="AN33" s="80">
+      <c r="AP33" s="79">
         <f t="shared" si="12"/>
         <v>493.85115000000002</v>
       </c>
-      <c r="AO33" s="80">
+      <c r="AQ33" s="79">
         <f t="shared" si="12"/>
         <v>493.85115000000002</v>
       </c>
-      <c r="AP33" s="80">
+      <c r="AR33" s="79">
         <f t="shared" si="12"/>
         <v>493.85115000000002</v>
       </c>
-      <c r="AQ33" s="80">
+      <c r="AS33" s="79">
         <f t="shared" si="12"/>
         <v>493.85115000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:43" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="72" t="s">
+    <row r="34" spans="1:45" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="B34" s="80">
+      <c r="B34" s="79">
         <f t="shared" si="7"/>
         <v>15145.002074952903</v>
       </c>
-      <c r="C34" s="80">
+      <c r="C34" s="79">
         <f t="shared" si="7"/>
         <v>3292.391755424544</v>
       </c>
-      <c r="D34" s="80">
+      <c r="D34" s="79">
         <f t="shared" si="7"/>
         <v>1501.330640473592</v>
       </c>
-      <c r="E34" s="80">
+      <c r="E34" s="79">
         <f t="shared" si="8"/>
         <v>603300445.42406297</v>
       </c>
-      <c r="F34" s="80">
+      <c r="F34" s="79">
         <f t="shared" si="8"/>
         <v>60330044.542406298</v>
       </c>
-      <c r="G34" s="80">
+      <c r="G34" s="79">
         <f t="shared" si="8"/>
         <v>685836.75473922014</v>
       </c>
-      <c r="H34" s="80">
+      <c r="H34" s="79">
         <f t="shared" si="8"/>
         <v>56125.724388566938</v>
       </c>
-      <c r="I34" s="80">
+      <c r="I34" s="79">
         <f>I32*1.25</f>
         <v>1206600.890848126</v>
       </c>
-      <c r="J34" s="80">
+      <c r="J34" s="79">
         <f>J32*1.25</f>
         <v>603300.44542406301</v>
       </c>
-      <c r="K34" s="80">
+      <c r="K34" s="79">
         <f t="shared" si="8"/>
         <v>1809901.3362721889</v>
       </c>
-      <c r="L34" s="80">
+      <c r="L34" s="79">
         <f>L18/$E$28</f>
         <v>434376320.70532537</v>
       </c>
-      <c r="N34" s="72">
+      <c r="N34" s="71">
         <f>N32*1.25</f>
         <v>699.42925000000002</v>
       </c>
-      <c r="O34" s="72">
+      <c r="O34" s="71">
         <f>O32*1.25</f>
         <v>699.42925000000002</v>
       </c>
-      <c r="P34" s="80">
+      <c r="P34" s="79">
         <f t="shared" si="9"/>
         <v>868752641.41065073</v>
       </c>
-      <c r="Q34" s="80">
-        <f>Q32*1.25</f>
-        <v>10541.7775</v>
-      </c>
-      <c r="R34" s="80">
+      <c r="Q34" s="79">
+        <f>Transport!K7</f>
+        <v>1217.5715872974392</v>
+      </c>
+      <c r="R34" s="79">
         <f>R32*1.25</f>
         <v>1125</v>
       </c>
-      <c r="S34" s="80">
+      <c r="S34" s="79">
         <f t="shared" ref="S34:W34" si="13">S32*1.25</f>
         <v>750</v>
       </c>
-      <c r="T34" s="80">
+      <c r="T34" s="79">
         <f t="shared" si="13"/>
         <v>312.5</v>
       </c>
-      <c r="U34" s="80">
+      <c r="U34" s="79">
         <f t="shared" si="13"/>
         <v>281.25</v>
       </c>
-      <c r="V34" s="80">
+      <c r="V34" s="79">
         <f t="shared" si="13"/>
         <v>218.75</v>
       </c>
-      <c r="W34" s="80">
+      <c r="W34" s="79">
         <f t="shared" si="13"/>
         <v>93.75</v>
       </c>
-      <c r="X34" s="80">
+      <c r="X34" s="79">
         <f>X32*1.25</f>
         <v>1496.25</v>
       </c>
-      <c r="Y34" s="80">
+      <c r="Y34" s="79">
         <f>Y32*1.25</f>
+        <v>612.19901435395491</v>
+      </c>
+      <c r="Z34" s="79">
+        <v>22991.623327927322</v>
+      </c>
+      <c r="AA34" s="79">
+        <f>AA32*1.25</f>
         <v>3016502.2271203152</v>
       </c>
-      <c r="Z34" s="80">
-        <f>Z18/$E$28</f>
+      <c r="AB34" s="79">
+        <f>AB18/$E$28</f>
         <v>270336.27128785499</v>
       </c>
-      <c r="AA34" s="80">
-        <f t="shared" ref="AA34" si="14">AA32*1.25</f>
+      <c r="AC34" s="79">
+        <f t="shared" ref="AC34" si="14">AC32*1.25</f>
         <v>823.08525000000009</v>
       </c>
-      <c r="AB34" s="80">
-        <f t="shared" ref="AB34:AQ34" si="15">AB32*1.25</f>
+      <c r="AD34" s="79">
+        <f t="shared" ref="AD34:AS34" si="15">AD32*1.25</f>
         <v>823.08525000000009</v>
       </c>
-      <c r="AC34" s="80">
+      <c r="AE34" s="79">
         <f t="shared" si="15"/>
         <v>823.08525000000009</v>
       </c>
-      <c r="AD34" s="80">
+      <c r="AF34" s="79">
         <f t="shared" si="15"/>
         <v>823.08525000000009</v>
       </c>
-      <c r="AE34" s="80">
+      <c r="AG34" s="79">
         <f t="shared" si="15"/>
         <v>823.08525000000009</v>
       </c>
-      <c r="AF34" s="80">
+      <c r="AH34" s="79">
         <f t="shared" si="15"/>
         <v>823.08525000000009</v>
       </c>
-      <c r="AG34" s="80">
+      <c r="AI34" s="79">
         <f t="shared" si="15"/>
         <v>823.08525000000009</v>
       </c>
-      <c r="AH34" s="80">
+      <c r="AJ34" s="79">
         <f t="shared" si="15"/>
         <v>823.08525000000009</v>
       </c>
-      <c r="AI34" s="80">
+      <c r="AK34" s="79">
         <f t="shared" si="15"/>
         <v>823.08525000000009</v>
       </c>
-      <c r="AJ34" s="80">
+      <c r="AL34" s="79">
         <f t="shared" si="15"/>
         <v>823.08525000000009</v>
       </c>
-      <c r="AK34" s="80">
+      <c r="AM34" s="79">
         <f t="shared" si="15"/>
         <v>823.08525000000009</v>
       </c>
-      <c r="AL34" s="80">
+      <c r="AN34" s="79">
         <f t="shared" si="15"/>
         <v>823.08525000000009</v>
       </c>
-      <c r="AM34" s="80">
+      <c r="AO34" s="79">
         <f t="shared" si="15"/>
         <v>823.08525000000009</v>
       </c>
-      <c r="AN34" s="80">
+      <c r="AP34" s="79">
         <f t="shared" si="15"/>
         <v>823.08525000000009</v>
       </c>
-      <c r="AO34" s="80">
+      <c r="AQ34" s="79">
         <f t="shared" si="15"/>
         <v>823.08525000000009</v>
       </c>
-      <c r="AP34" s="80">
+      <c r="AR34" s="79">
         <f t="shared" si="15"/>
         <v>823.08525000000009</v>
       </c>
-      <c r="AQ34" s="80">
+      <c r="AS34" s="79">
         <f t="shared" si="15"/>
         <v>823.08525000000009</v>
       </c>
     </row>
-    <row r="35" spans="1:43" s="69" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="68"/>
+    <row r="35" spans="1:45" s="68" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="67"/>
+    </row>
+    <row r="36" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:45" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="60" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="63" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:45" s="64" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="66"/>
+    </row>
+    <row r="40" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="66"/>
+      <c r="C40" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="D40" s="89"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="75"/>
+    </row>
+    <row r="41" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="66"/>
+      <c r="C41" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="D41" s="90">
+        <v>0.6</v>
+      </c>
+      <c r="H41" s="76"/>
+    </row>
+    <row r="42" spans="1:45" s="64" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="66"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="77"/>
+    </row>
+    <row r="43" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="66"/>
+    </row>
+    <row r="44" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="B44" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="D44" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="E44" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="F44" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="G44" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="H44" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="I44" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="J44" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="K44" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="L44" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="N44" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="O44" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="P44" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q44" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="R44" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="S44" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="T44" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="U44" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="V44" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="W44" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="X44" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y44" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z44" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA44" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB44" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC44" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD44" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE44" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF44" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG44" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH44" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI44" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ44" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK44" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL44" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM44" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="AN44" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO44" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="AP44" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="AQ44" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="AR44" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="AS44" s="64" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="66"/>
+    </row>
+    <row r="46" spans="1:45" s="78" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="91" t="str">
+        <f>A31</f>
+        <v>Unit</v>
+      </c>
+      <c r="B46" s="78" t="str">
+        <f t="shared" ref="B46:AS46" si="16">B31</f>
+        <v>euro/m</v>
+      </c>
+      <c r="C46" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v>euro/m</v>
+      </c>
+      <c r="D46" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v>euro/m</v>
+      </c>
+      <c r="E46" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v>euro/facility</v>
+      </c>
+      <c r="F46" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v>euro/facility</v>
+      </c>
+      <c r="G46" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v>euro/facility</v>
+      </c>
+      <c r="H46" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v>euro/facility</v>
+      </c>
+      <c r="I46" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v>euro/facility</v>
+      </c>
+      <c r="J46" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v>euro/facility</v>
+      </c>
+      <c r="K46" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v>euro/facility</v>
+      </c>
+      <c r="L46" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v>euro/facility</v>
+      </c>
+      <c r="N46" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v>euro/m2</v>
+      </c>
+      <c r="O46" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v>euro/m2</v>
+      </c>
+      <c r="P46" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v>euro/facility</v>
+      </c>
+      <c r="Q46" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v>euro/m</v>
+      </c>
+      <c r="R46" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v>euro/m</v>
+      </c>
+      <c r="S46" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v>euro/m</v>
+      </c>
+      <c r="T46" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v>euro/m</v>
+      </c>
+      <c r="U46" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v>euro/m</v>
+      </c>
+      <c r="V46" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v>euro/m</v>
+      </c>
+      <c r="W46" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v>euro/m</v>
+      </c>
+      <c r="X46" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v>euro/m2</v>
+      </c>
+      <c r="Y46" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v>euro/m2</v>
+      </c>
+      <c r="Z46" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v>euro/m</v>
+      </c>
+      <c r="AA46" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v>euro/facility</v>
+      </c>
+      <c r="AB46" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v>euro/facility</v>
+      </c>
+      <c r="AC46" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v>euro/m2</v>
+      </c>
+      <c r="AD46" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v>euro/m2</v>
+      </c>
+      <c r="AE46" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v>euro/m2</v>
+      </c>
+      <c r="AF46" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v>euro/m2</v>
+      </c>
+      <c r="AG46" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v>euro/m2</v>
+      </c>
+      <c r="AH46" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v>euro/m2</v>
+      </c>
+      <c r="AI46" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v>euro/m2</v>
+      </c>
+      <c r="AJ46" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v>euro/m2</v>
+      </c>
+      <c r="AK46" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v>euro/m2</v>
+      </c>
+      <c r="AL46" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v>euro/m2</v>
+      </c>
+      <c r="AM46" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v>euro/m2</v>
+      </c>
+      <c r="AN46" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v>euro/m2</v>
+      </c>
+      <c r="AO46" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v>euro/m2</v>
+      </c>
+      <c r="AP46" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v>euro/m2</v>
+      </c>
+      <c r="AQ46" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v>euro/m2</v>
+      </c>
+      <c r="AR46" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v>euro/m2</v>
+      </c>
+      <c r="AS46" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v>euro/m2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:45" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="92" t="str">
+        <f t="shared" ref="A47" si="17">A32</f>
+        <v>MaxDam</v>
+      </c>
+      <c r="B47" s="79">
+        <f>IF(B44="yes",B32*($D$41),B32)</f>
+        <v>3205.8815281373586</v>
+      </c>
+      <c r="C47" s="79">
+        <f t="shared" ref="C47:AS47" si="18">IF(C44="yes",C32*($D$41),C32)</f>
+        <v>865.43809683089546</v>
+      </c>
+      <c r="D47" s="79">
+        <f t="shared" si="18"/>
+        <v>480.56961662342638</v>
+      </c>
+      <c r="E47" s="79">
+        <f t="shared" si="18"/>
+        <v>442420326.64431292</v>
+      </c>
+      <c r="F47" s="79">
+        <f t="shared" si="18"/>
+        <v>32176023.755950026</v>
+      </c>
+      <c r="G47" s="79">
+        <f t="shared" si="18"/>
+        <v>121054.65082015519</v>
+      </c>
+      <c r="H47" s="79">
+        <f t="shared" si="18"/>
+        <v>21339.436204695023</v>
+      </c>
+      <c r="I47" s="79">
+        <f t="shared" si="18"/>
+        <v>965280.7126785008</v>
+      </c>
+      <c r="J47" s="79">
+        <f t="shared" si="18"/>
+        <v>482640.3563392504</v>
+      </c>
+      <c r="K47" s="79">
+        <f t="shared" si="18"/>
+        <v>1117312.4249253648</v>
+      </c>
+      <c r="L47" s="79">
+        <f t="shared" si="18"/>
+        <v>197078145.50519392</v>
+      </c>
+      <c r="M47" s="79">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N47" s="79">
+        <f t="shared" si="18"/>
+        <v>559.54340000000002</v>
+      </c>
+      <c r="O47" s="79">
+        <f t="shared" si="18"/>
+        <v>559.54340000000002</v>
+      </c>
+      <c r="P47" s="79">
+        <f t="shared" si="18"/>
+        <v>394156291.01038784</v>
+      </c>
+      <c r="Q47" s="79">
+        <f t="shared" si="18"/>
+        <v>662.89980000000003</v>
+      </c>
+      <c r="R47" s="79">
+        <f t="shared" si="18"/>
+        <v>900</v>
+      </c>
+      <c r="S47" s="79">
+        <f t="shared" si="18"/>
+        <v>600</v>
+      </c>
+      <c r="T47" s="79">
+        <f t="shared" si="18"/>
+        <v>250</v>
+      </c>
+      <c r="U47" s="79">
+        <f t="shared" si="18"/>
+        <v>225</v>
+      </c>
+      <c r="V47" s="79">
+        <f t="shared" si="18"/>
+        <v>175</v>
+      </c>
+      <c r="W47" s="79">
+        <f t="shared" si="18"/>
+        <v>75</v>
+      </c>
+      <c r="X47" s="79">
+        <f t="shared" si="18"/>
+        <v>1197</v>
+      </c>
+      <c r="Y47" s="79">
+        <f t="shared" si="18"/>
+        <v>293.85552688989833</v>
+      </c>
+      <c r="Z47" s="79">
+        <f t="shared" si="18"/>
+        <v>4421.46602460141</v>
+      </c>
+      <c r="AA47" s="79">
+        <f t="shared" si="18"/>
+        <v>2413201.7816962521</v>
+      </c>
+      <c r="AB47" s="79">
+        <f t="shared" si="18"/>
+        <v>89319.10403350729</v>
+      </c>
+      <c r="AC47" s="79">
+        <f t="shared" si="18"/>
+        <v>658.46820000000002</v>
+      </c>
+      <c r="AD47" s="79">
+        <f t="shared" si="18"/>
+        <v>658.46820000000002</v>
+      </c>
+      <c r="AE47" s="79">
+        <f t="shared" si="18"/>
+        <v>658.46820000000002</v>
+      </c>
+      <c r="AF47" s="79">
+        <f t="shared" si="18"/>
+        <v>658.46820000000002</v>
+      </c>
+      <c r="AG47" s="79">
+        <f t="shared" si="18"/>
+        <v>658.46820000000002</v>
+      </c>
+      <c r="AH47" s="79">
+        <f t="shared" si="18"/>
+        <v>658.46820000000002</v>
+      </c>
+      <c r="AI47" s="79">
+        <f t="shared" si="18"/>
+        <v>658.46820000000002</v>
+      </c>
+      <c r="AJ47" s="79">
+        <f t="shared" si="18"/>
+        <v>658.46820000000002</v>
+      </c>
+      <c r="AK47" s="79">
+        <f t="shared" si="18"/>
+        <v>658.46820000000002</v>
+      </c>
+      <c r="AL47" s="79">
+        <f t="shared" si="18"/>
+        <v>658.46820000000002</v>
+      </c>
+      <c r="AM47" s="79">
+        <f t="shared" si="18"/>
+        <v>658.46820000000002</v>
+      </c>
+      <c r="AN47" s="79">
+        <f t="shared" si="18"/>
+        <v>658.46820000000002</v>
+      </c>
+      <c r="AO47" s="79">
+        <f t="shared" si="18"/>
+        <v>658.46820000000002</v>
+      </c>
+      <c r="AP47" s="79">
+        <f t="shared" si="18"/>
+        <v>658.46820000000002</v>
+      </c>
+      <c r="AQ47" s="79">
+        <f t="shared" si="18"/>
+        <v>658.46820000000002</v>
+      </c>
+      <c r="AR47" s="79">
+        <f t="shared" si="18"/>
+        <v>658.46820000000002</v>
+      </c>
+      <c r="AS47" s="79">
+        <f t="shared" si="18"/>
+        <v>658.46820000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:45" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="92" t="str">
+        <f t="shared" ref="A48" si="19">A33</f>
+        <v>LowerDam</v>
+      </c>
+      <c r="B48" s="79">
+        <f>IF(B44="yes",B33*($D$41),B33)</f>
+        <v>434.59571171603977</v>
+      </c>
+      <c r="C48" s="79">
+        <f t="shared" ref="C48:AS48" si="20">IF(C44="yes",C33*($D$41),C33)</f>
+        <v>128.40327846155722</v>
+      </c>
+      <c r="D48" s="79">
+        <f t="shared" si="20"/>
+        <v>59.263051597641791</v>
+      </c>
+      <c r="E48" s="79">
+        <f t="shared" si="20"/>
+        <v>120660089.0848126</v>
+      </c>
+      <c r="F48" s="79">
+        <f t="shared" si="20"/>
+        <v>12066008.908481261</v>
+      </c>
+      <c r="G48" s="79">
+        <f t="shared" si="20"/>
+        <v>21293.311069639523</v>
+      </c>
+      <c r="H48" s="79">
+        <f t="shared" si="20"/>
+        <v>10154.916020037326</v>
+      </c>
+      <c r="I48" s="79">
+        <f t="shared" si="20"/>
+        <v>723960.53450887557</v>
+      </c>
+      <c r="J48" s="79">
+        <f t="shared" si="20"/>
+        <v>361980.26725443779</v>
+      </c>
+      <c r="K48" s="79">
+        <f t="shared" si="20"/>
+        <v>36198.026725443779</v>
+      </c>
+      <c r="L48" s="79">
+        <f t="shared" si="20"/>
+        <v>36198026.72544378</v>
+      </c>
+      <c r="M48" s="79">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N48" s="79">
+        <f t="shared" si="20"/>
+        <v>419.65755000000001</v>
+      </c>
+      <c r="O48" s="79">
+        <f t="shared" si="20"/>
+        <v>419.65755000000001</v>
+      </c>
+      <c r="P48" s="79">
+        <f t="shared" si="20"/>
+        <v>72396053.450887561</v>
+      </c>
+      <c r="Q48" s="79">
+        <f t="shared" si="20"/>
+        <v>595.25722045652594</v>
+      </c>
+      <c r="R48" s="79">
+        <f t="shared" si="20"/>
+        <v>675</v>
+      </c>
+      <c r="S48" s="79">
+        <f t="shared" si="20"/>
+        <v>450</v>
+      </c>
+      <c r="T48" s="79">
+        <f t="shared" si="20"/>
+        <v>187.5</v>
+      </c>
+      <c r="U48" s="79">
+        <f t="shared" si="20"/>
+        <v>168.75</v>
+      </c>
+      <c r="V48" s="79">
+        <f t="shared" si="20"/>
+        <v>131.25</v>
+      </c>
+      <c r="W48" s="79">
+        <f t="shared" si="20"/>
+        <v>56.25</v>
+      </c>
+      <c r="X48" s="79">
+        <f t="shared" si="20"/>
+        <v>897.75</v>
+      </c>
+      <c r="Y48" s="79">
+        <f t="shared" si="20"/>
+        <v>220.39164516742377</v>
+      </c>
+      <c r="Z48" s="79">
+        <f t="shared" si="20"/>
+        <v>2383.8018252636739</v>
+      </c>
+      <c r="AA48" s="79">
+        <f t="shared" si="20"/>
+        <v>1809901.3362721889</v>
+      </c>
+      <c r="AB48" s="79">
+        <f t="shared" si="20"/>
+        <v>54067.254257570989</v>
+      </c>
+      <c r="AC48" s="79">
+        <f t="shared" si="20"/>
+        <v>493.85115000000002</v>
+      </c>
+      <c r="AD48" s="79">
+        <f t="shared" si="20"/>
+        <v>493.85115000000002</v>
+      </c>
+      <c r="AE48" s="79">
+        <f t="shared" si="20"/>
+        <v>493.85115000000002</v>
+      </c>
+      <c r="AF48" s="79">
+        <f t="shared" si="20"/>
+        <v>493.85115000000002</v>
+      </c>
+      <c r="AG48" s="79">
+        <f t="shared" si="20"/>
+        <v>493.85115000000002</v>
+      </c>
+      <c r="AH48" s="79">
+        <f t="shared" si="20"/>
+        <v>493.85115000000002</v>
+      </c>
+      <c r="AI48" s="79">
+        <f t="shared" si="20"/>
+        <v>493.85115000000002</v>
+      </c>
+      <c r="AJ48" s="79">
+        <f t="shared" si="20"/>
+        <v>493.85115000000002</v>
+      </c>
+      <c r="AK48" s="79">
+        <f t="shared" si="20"/>
+        <v>493.85115000000002</v>
+      </c>
+      <c r="AL48" s="79">
+        <f t="shared" si="20"/>
+        <v>493.85115000000002</v>
+      </c>
+      <c r="AM48" s="79">
+        <f t="shared" si="20"/>
+        <v>493.85115000000002</v>
+      </c>
+      <c r="AN48" s="79">
+        <f t="shared" si="20"/>
+        <v>493.85115000000002</v>
+      </c>
+      <c r="AO48" s="79">
+        <f t="shared" si="20"/>
+        <v>493.85115000000002</v>
+      </c>
+      <c r="AP48" s="79">
+        <f t="shared" si="20"/>
+        <v>493.85115000000002</v>
+      </c>
+      <c r="AQ48" s="79">
+        <f t="shared" si="20"/>
+        <v>493.85115000000002</v>
+      </c>
+      <c r="AR48" s="79">
+        <f t="shared" si="20"/>
+        <v>493.85115000000002</v>
+      </c>
+      <c r="AS48" s="79">
+        <f t="shared" si="20"/>
+        <v>493.85115000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:45" s="93" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="92" t="str">
+        <f>A34</f>
+        <v>Upperdam</v>
+      </c>
+      <c r="B49" s="79">
+        <f>IF(B44="yes",B34*($D$41),B34)</f>
+        <v>9087.0012449717415</v>
+      </c>
+      <c r="C49" s="79">
+        <f t="shared" ref="C49:AS49" si="21">IF(C44="yes",C34*($D$41),C34)</f>
+        <v>1975.4350532547264</v>
+      </c>
+      <c r="D49" s="79">
+        <f t="shared" si="21"/>
+        <v>900.79838428415519</v>
+      </c>
+      <c r="E49" s="79">
+        <f t="shared" si="21"/>
+        <v>603300445.42406297</v>
+      </c>
+      <c r="F49" s="79">
+        <f t="shared" si="21"/>
+        <v>60330044.542406298</v>
+      </c>
+      <c r="G49" s="79">
+        <f t="shared" si="21"/>
+        <v>411502.05284353206</v>
+      </c>
+      <c r="H49" s="79">
+        <f t="shared" si="21"/>
+        <v>33675.434633140161</v>
+      </c>
+      <c r="I49" s="79">
+        <f t="shared" si="21"/>
+        <v>1206600.890848126</v>
+      </c>
+      <c r="J49" s="79">
+        <f t="shared" si="21"/>
+        <v>603300.44542406301</v>
+      </c>
+      <c r="K49" s="79">
+        <f t="shared" si="21"/>
+        <v>1809901.3362721889</v>
+      </c>
+      <c r="L49" s="79">
+        <f t="shared" si="21"/>
+        <v>434376320.70532537</v>
+      </c>
+      <c r="M49" s="79">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N49" s="79">
+        <f t="shared" si="21"/>
+        <v>699.42925000000002</v>
+      </c>
+      <c r="O49" s="79">
+        <f t="shared" si="21"/>
+        <v>699.42925000000002</v>
+      </c>
+      <c r="P49" s="79">
+        <f t="shared" si="21"/>
+        <v>868752641.41065073</v>
+      </c>
+      <c r="Q49" s="79">
+        <f t="shared" si="21"/>
+        <v>730.5429523784635</v>
+      </c>
+      <c r="R49" s="79">
+        <f t="shared" si="21"/>
+        <v>1125</v>
+      </c>
+      <c r="S49" s="79">
+        <f t="shared" si="21"/>
+        <v>750</v>
+      </c>
+      <c r="T49" s="79">
+        <f t="shared" si="21"/>
+        <v>312.5</v>
+      </c>
+      <c r="U49" s="79">
+        <f t="shared" si="21"/>
+        <v>281.25</v>
+      </c>
+      <c r="V49" s="79">
+        <f t="shared" si="21"/>
+        <v>218.75</v>
+      </c>
+      <c r="W49" s="79">
+        <f t="shared" si="21"/>
+        <v>93.75</v>
+      </c>
+      <c r="X49" s="79">
+        <f t="shared" si="21"/>
+        <v>1496.25</v>
+      </c>
+      <c r="Y49" s="79">
+        <f t="shared" si="21"/>
+        <v>367.31940861237291</v>
+      </c>
+      <c r="Z49" s="79">
+        <f t="shared" si="21"/>
+        <v>13794.973996756393</v>
+      </c>
+      <c r="AA49" s="79">
+        <f t="shared" si="21"/>
+        <v>3016502.2271203152</v>
+      </c>
+      <c r="AB49" s="79">
+        <f t="shared" si="21"/>
+        <v>162201.762772713</v>
+      </c>
+      <c r="AC49" s="79">
+        <f t="shared" si="21"/>
+        <v>823.08525000000009</v>
+      </c>
+      <c r="AD49" s="79">
+        <f t="shared" si="21"/>
+        <v>823.08525000000009</v>
+      </c>
+      <c r="AE49" s="79">
+        <f t="shared" si="21"/>
+        <v>823.08525000000009</v>
+      </c>
+      <c r="AF49" s="79">
+        <f t="shared" si="21"/>
+        <v>823.08525000000009</v>
+      </c>
+      <c r="AG49" s="79">
+        <f t="shared" si="21"/>
+        <v>823.08525000000009</v>
+      </c>
+      <c r="AH49" s="79">
+        <f t="shared" si="21"/>
+        <v>823.08525000000009</v>
+      </c>
+      <c r="AI49" s="79">
+        <f t="shared" si="21"/>
+        <v>823.08525000000009</v>
+      </c>
+      <c r="AJ49" s="79">
+        <f t="shared" si="21"/>
+        <v>823.08525000000009</v>
+      </c>
+      <c r="AK49" s="79">
+        <f t="shared" si="21"/>
+        <v>823.08525000000009</v>
+      </c>
+      <c r="AL49" s="79">
+        <f t="shared" si="21"/>
+        <v>823.08525000000009</v>
+      </c>
+      <c r="AM49" s="79">
+        <f t="shared" si="21"/>
+        <v>823.08525000000009</v>
+      </c>
+      <c r="AN49" s="79">
+        <f t="shared" si="21"/>
+        <v>823.08525000000009</v>
+      </c>
+      <c r="AO49" s="79">
+        <f t="shared" si="21"/>
+        <v>823.08525000000009</v>
+      </c>
+      <c r="AP49" s="79">
+        <f t="shared" si="21"/>
+        <v>823.08525000000009</v>
+      </c>
+      <c r="AQ49" s="79">
+        <f t="shared" si="21"/>
+        <v>823.08525000000009</v>
+      </c>
+      <c r="AR49" s="79">
+        <f t="shared" si="21"/>
+        <v>823.08525000000009</v>
+      </c>
+      <c r="AS49" s="79">
+        <f t="shared" si="21"/>
+        <v>823.08525000000009</v>
+      </c>
+    </row>
+    <row r="50" spans="1:45" s="68" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9107,7 +11873,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9480,4 +12246,865 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1998</v>
+      </c>
+      <c r="B2" s="14">
+        <v>43000000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2015</v>
+      </c>
+      <c r="B3" s="14">
+        <v>27377016.02</v>
+      </c>
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3">
+        <f>B3/10000</f>
+        <v>2737.7016020000001</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3">
+        <v>559.54340000000002</v>
+      </c>
+      <c r="K3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" s="82" t="s">
+        <v>118</v>
+      </c>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="85">
+        <v>0</v>
+      </c>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.5</v>
+      </c>
+      <c r="B7">
+        <v>0.2</v>
+      </c>
+      <c r="K7" s="85">
+        <v>0.2971480219894268</v>
+      </c>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0.4</v>
+      </c>
+      <c r="K8" s="85">
+        <v>0.47979055854907787</v>
+      </c>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.5</v>
+      </c>
+      <c r="B9">
+        <v>0.6</v>
+      </c>
+      <c r="K9" s="85">
+        <v>0.60328578958373713</v>
+      </c>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>0.8</v>
+      </c>
+      <c r="K10" s="85">
+        <v>0.69434584412800904</v>
+      </c>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>0.85</v>
+      </c>
+      <c r="K11" s="85">
+        <v>0.82026548371148122</v>
+      </c>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>0.9</v>
+      </c>
+      <c r="K12" s="85">
+        <v>0.92286192938836609</v>
+      </c>
+      <c r="L12" s="84"/>
+      <c r="M12" s="84"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>0.95</v>
+      </c>
+      <c r="K13" s="85">
+        <v>0.9870654926044935</v>
+      </c>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="K14" s="85">
+        <v>1</v>
+      </c>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+    </row>
+    <row r="17" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="82" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="83" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3">
+        <v>2010</v>
+      </c>
+      <c r="E3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="82" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="80">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="14">
+        <v>750000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6">
+        <f>B6*(($E$4/100)+1)</f>
+        <v>750652.5</v>
+      </c>
+      <c r="F6" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="H6">
+        <f>(E6/correction_reference_year!$E$28)/1000</f>
+        <v>676.42865960968857</v>
+      </c>
+      <c r="I6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6">
+        <f>H6+$H$8</f>
+        <v>992.09536742754324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="C7" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="82">
+        <f t="shared" ref="E7:E10" si="0">B7*(($E$4/100)+1)</f>
+        <v>1000869.9999999999</v>
+      </c>
+      <c r="F7" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" s="82">
+        <f>(E7/correction_reference_year!$E$28)/1000</f>
+        <v>901.90487947958468</v>
+      </c>
+      <c r="I7" s="82" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" s="82">
+        <f>H7+$H$8</f>
+        <v>1217.5715872974392</v>
+      </c>
+      <c r="M7">
+        <f>AVERAGE(K6:K7)</f>
+        <v>1104.8334773624913</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8">
+        <v>350000</v>
+      </c>
+      <c r="C8" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="82">
+        <f t="shared" si="0"/>
+        <v>350304.5</v>
+      </c>
+      <c r="F8" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="82">
+        <f>(E8/correction_reference_year!$E$28)/1000</f>
+        <v>315.66670781785467</v>
+      </c>
+      <c r="I8" s="82" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9">
+        <v>30000000</v>
+      </c>
+      <c r="C9" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="82">
+        <f t="shared" si="0"/>
+        <v>30026099.999999996</v>
+      </c>
+      <c r="F9" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" s="82">
+        <f>E9/correction_reference_year!$E$28</f>
+        <v>27057146.384387538</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" t="s">
+        <v>132</v>
+      </c>
+      <c r="L9">
+        <f>H9</f>
+        <v>27057146.384387538</v>
+      </c>
+      <c r="M9" t="s">
+        <v>133</v>
+      </c>
+      <c r="O9" s="87">
+        <f>L9/3000</f>
+        <v>9019.0487947958463</v>
+      </c>
+      <c r="P9" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q9" s="87">
+        <v>9019.0487947958463</v>
+      </c>
+      <c r="R9" s="82" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10">
+        <v>500</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="82">
+        <f t="shared" si="0"/>
+        <v>500.43499999999995</v>
+      </c>
+      <c r="F10" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="H10" s="82">
+        <f>E10/correction_reference_year!$E$28</f>
+        <v>450.95243973979228</v>
+      </c>
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="83" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="17">
+        <v>120000</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="17">
+        <v>750000</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="17">
+        <v>750000</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="17">
+        <v>5000</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="81">
+        <v>12000000</v>
+      </c>
+      <c r="C17" s="81" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="82">
+        <f>B17*(($E$4/100)+1)</f>
+        <v>12010440</v>
+      </c>
+      <c r="F17" s="81" t="s">
+        <v>143</v>
+      </c>
+      <c r="H17" s="82">
+        <f>E17/correction_reference_year!$E$28</f>
+        <v>10822858.553755017</v>
+      </c>
+      <c r="I17" t="s">
+        <v>144</v>
+      </c>
+      <c r="K17">
+        <f>3000-1524</f>
+        <v>1476</v>
+      </c>
+      <c r="L17" t="s">
+        <v>145</v>
+      </c>
+      <c r="N17" s="87">
+        <f>H17/K17</f>
+        <v>7332.5599957689819</v>
+      </c>
+      <c r="O17" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87">
+        <v>7332.5599957689819</v>
+      </c>
+      <c r="R17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="81">
+        <v>4800000</v>
+      </c>
+      <c r="C18" s="81" t="s">
+        <v>143</v>
+      </c>
+      <c r="E18" s="82">
+        <f>B18*(($E$4/100)+1)</f>
+        <v>4804176</v>
+      </c>
+      <c r="F18" s="81" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" s="82">
+        <f>E18/correction_reference_year!$E$28</f>
+        <v>4329143.4215020062</v>
+      </c>
+      <c r="I18" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="K18">
+        <f>1524-1000</f>
+        <v>524</v>
+      </c>
+      <c r="L18" t="s">
+        <v>145</v>
+      </c>
+      <c r="N18" s="87">
+        <f>H18/K18</f>
+        <v>8261.7240868358895</v>
+      </c>
+      <c r="O18" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87">
+        <v>8261.7240868358895</v>
+      </c>
+      <c r="R18" s="82" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="82">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="82" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" s="82" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>149</v>
+      </c>
+      <c r="B24">
+        <v>4576</v>
+      </c>
+      <c r="C24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J25" s="82" t="s">
+        <v>167</v>
+      </c>
+      <c r="N25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26">
+        <v>0.30480000000000002</v>
+      </c>
+      <c r="F26" t="s">
+        <v>98</v>
+      </c>
+      <c r="N26" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="O26" s="87"/>
+      <c r="P26" s="87" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q26" s="87"/>
+      <c r="S26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="83"/>
+      <c r="B27" s="82" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="E27" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="G27" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="H27" s="82" t="s">
+        <v>165</v>
+      </c>
+      <c r="J27" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="K27" s="82" t="s">
+        <v>165</v>
+      </c>
+      <c r="N27" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="O27" s="87" t="s">
+        <v>158</v>
+      </c>
+      <c r="P27" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q27" s="87" t="s">
+        <v>158</v>
+      </c>
+      <c r="S27" s="87" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28">
+        <v>3700</v>
+      </c>
+      <c r="C28">
+        <v>75</v>
+      </c>
+      <c r="D28">
+        <f>B28*$E$26</f>
+        <v>1127.76</v>
+      </c>
+      <c r="E28" s="82">
+        <f>C28*$E$26</f>
+        <v>22.86</v>
+      </c>
+      <c r="F28">
+        <f>D28*E28</f>
+        <v>25780.5936</v>
+      </c>
+      <c r="G28" s="14">
+        <v>4995000</v>
+      </c>
+      <c r="H28" s="14">
+        <v>4440000</v>
+      </c>
+      <c r="J28">
+        <f>(G28*(($B$22/100)+1))/correction_reference_year!$E$28</f>
+        <v>4744158.2584576961</v>
+      </c>
+      <c r="K28" s="82">
+        <f>(H28*(($B$22/100)+1))/correction_reference_year!$E$28</f>
+        <v>4217029.5630735075</v>
+      </c>
+      <c r="N28" s="87">
+        <f>J28/$F$28</f>
+        <v>184.02052070894504</v>
+      </c>
+      <c r="O28" s="87">
+        <f>K28/$F$28</f>
+        <v>163.57379618572892</v>
+      </c>
+      <c r="P28" s="87">
+        <f>J28/$D$28</f>
+        <v>4206.7091034064833</v>
+      </c>
+      <c r="Q28" s="87">
+        <f>K28/$D$28</f>
+        <v>3739.2969808057633</v>
+      </c>
+      <c r="S28">
+        <f>AVERAGE(P28:Q28)</f>
+        <v>3973.0030421061233</v>
+      </c>
+      <c r="Y28" s="82"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29">
+        <v>5000</v>
+      </c>
+      <c r="C29">
+        <v>100</v>
+      </c>
+      <c r="D29" s="82">
+        <f t="shared" ref="D29:D30" si="1">B29*$E$26</f>
+        <v>1524</v>
+      </c>
+      <c r="E29" s="82">
+        <f t="shared" ref="E29:E30" si="2">C29*$E$26</f>
+        <v>30.48</v>
+      </c>
+      <c r="F29" s="82">
+        <f t="shared" ref="F29:F30" si="3">D29*E29</f>
+        <v>46451.520000000004</v>
+      </c>
+      <c r="G29" s="14">
+        <v>9000000</v>
+      </c>
+      <c r="H29" s="14">
+        <v>8500000</v>
+      </c>
+      <c r="J29" s="82">
+        <f>(G29*(($B$22/100)+1))/correction_reference_year!$E$28</f>
+        <v>8548032.8981219735</v>
+      </c>
+      <c r="K29" s="82">
+        <f>(H29*(($B$22/100)+1))/correction_reference_year!$E$28</f>
+        <v>8073142.1815596418</v>
+      </c>
+      <c r="N29" s="87">
+        <f t="shared" ref="N29:N30" si="4">J29/$F$28</f>
+        <v>331.56850578188289</v>
+      </c>
+      <c r="O29" s="87">
+        <f t="shared" ref="O29:O30" si="5">K29/$F$28</f>
+        <v>313.14803323844495</v>
+      </c>
+      <c r="P29" s="87">
+        <f t="shared" ref="P29:P30" si="6">J29/$D$28</f>
+        <v>7579.6560421738432</v>
+      </c>
+      <c r="Q29" s="87">
+        <f t="shared" ref="Q29:Q30" si="7">K29/$D$28</f>
+        <v>7158.5640398308524</v>
+      </c>
+      <c r="S29" s="82">
+        <f t="shared" ref="S29:S30" si="8">AVERAGE(P29:Q29)</f>
+        <v>7369.1100410023482</v>
+      </c>
+      <c r="X29" s="82"/>
+      <c r="Y29" s="82"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30">
+        <v>13000</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+      <c r="D30" s="82">
+        <f t="shared" si="1"/>
+        <v>3962.4</v>
+      </c>
+      <c r="E30" s="82">
+        <f t="shared" si="2"/>
+        <v>30.48</v>
+      </c>
+      <c r="F30" s="82">
+        <f t="shared" si="3"/>
+        <v>120773.952</v>
+      </c>
+      <c r="G30" s="14">
+        <v>28600000</v>
+      </c>
+      <c r="H30" s="14">
+        <v>26000000</v>
+      </c>
+      <c r="J30" s="82">
+        <f>(G30*(($B$22/100)+1))/correction_reference_year!$E$28</f>
+        <v>27163748.987365384</v>
+      </c>
+      <c r="K30" s="82">
+        <f>(H30*(($B$22/100)+1))/correction_reference_year!$E$28</f>
+        <v>24694317.261241257</v>
+      </c>
+      <c r="N30" s="87">
+        <f t="shared" si="4"/>
+        <v>1053.6510294846503</v>
+      </c>
+      <c r="O30" s="87">
+        <f t="shared" si="5"/>
+        <v>957.86457225877291</v>
+      </c>
+      <c r="P30" s="87">
+        <f t="shared" si="6"/>
+        <v>24086.462534019101</v>
+      </c>
+      <c r="Q30" s="87">
+        <f t="shared" si="7"/>
+        <v>21896.784121835546</v>
+      </c>
+      <c r="S30" s="82">
+        <f t="shared" si="8"/>
+        <v>22991.623327927322</v>
+      </c>
+      <c r="X30" s="82"/>
+      <c r="Y30" s="82"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S31">
+        <f>AVERAGE(S28:S30)</f>
+        <v>11444.578803678598</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/data/infra_vulnerability_data.xlsx
+++ b/data/infra_vulnerability_data.xlsx
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="180">
   <si>
     <t>cable</t>
   </si>
@@ -652,6 +652,9 @@
   </si>
   <si>
     <t>no - Huizinga already adjusted for this (+ also adjusted for depreciated value)</t>
+  </si>
+  <si>
+    <t>aerodrome</t>
   </si>
 </sst>
 </file>
@@ -2552,8 +2555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2654,7 +2657,7 @@
         <v>85</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c r="Y1" s="4" t="s">
         <v>146</v>

--- a/data/infra_vulnerability_data.xlsx
+++ b/data/infra_vulnerability_data.xlsx
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="179">
   <si>
     <t>cable</t>
   </si>
@@ -652,9 +652,6 @@
   </si>
   <si>
     <t>no - Huizinga already adjusted for this (+ also adjusted for depreciated value)</t>
-  </si>
-  <si>
-    <t>aerodrome</t>
   </si>
 </sst>
 </file>
@@ -2556,7 +2553,7 @@
   <dimension ref="A1:AS68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+      <selection activeCell="AA24" sqref="AA24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2657,7 +2654,7 @@
         <v>85</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>179</v>
+        <v>53</v>
       </c>
       <c r="Y1" s="4" t="s">
         <v>146</v>

--- a/data/infra_vulnerability_data.xlsx
+++ b/data/infra_vulnerability_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snn490\surfdrive\My research articles\Article 2 multi-hazard analysis\Vulnerability\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\labsdfs.labs.vu.nl\labsdfs\BETA-IVM-BAZIS\eks510\projects\gmhcira\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1245,7 +1245,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1551,7 +1551,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="16514559"/>
@@ -1613,7 +1613,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="16514975"/>
@@ -1655,7 +1655,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1685,7 +1685,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2552,38 +2552,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AA24" sqref="AA24"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AP8" sqref="AP8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="11.7109375" style="82" customWidth="1"/>
-    <col min="27" max="27" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="11.6640625" style="82" customWidth="1"/>
+    <col min="27" max="27" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="14" bestFit="1" customWidth="1"/>
-    <col min="30" max="45" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="45" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>25</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:45" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>34</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>27</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="str">
         <f>correction_reference_year!A47</f>
         <v>MaxDam</v>
@@ -3170,7 +3170,7 @@
         <v>658.46820000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A5" s="82" t="str">
         <f>correction_reference_year!A48</f>
         <v>LowerDam</v>
@@ -3352,7 +3352,7 @@
         <v>493.85115000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A6" s="82" t="str">
         <f>correction_reference_year!A49</f>
         <v>Upperdam</v>
@@ -3534,7 +3534,7 @@
         <v>823.08525000000009</v>
       </c>
     </row>
-    <row r="7" spans="1:45" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="18" t="s">
         <v>112</v>
       </c>
@@ -3563,7 +3563,7 @@
       <c r="AR7" s="20"/>
       <c r="AS7" s="20"/>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
       <c r="H8" s="17"/>
       <c r="I8" s="58"/>
       <c r="R8" s="19"/>
@@ -3573,7 +3573,7 @@
       <c r="V8" s="19"/>
       <c r="W8" s="19"/>
     </row>
-    <row r="9" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -3585,7 +3585,7 @@
       <c r="V9" s="19"/>
       <c r="W9" s="19"/>
     </row>
-    <row r="10" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3780,7 +3780,7 @@
       <c r="AR11" s="16"/>
       <c r="AS11" s="16"/>
     </row>
-    <row r="12" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>20</v>
       </c>
@@ -3842,7 +3842,7 @@
       <c r="AR12" s="16"/>
       <c r="AS12" s="16"/>
     </row>
-    <row r="13" spans="1:45" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18">
         <v>30</v>
       </c>
@@ -3924,7 +3924,7 @@
       <c r="AR13" s="16"/>
       <c r="AS13" s="16"/>
     </row>
-    <row r="14" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>50</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="15" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>60</v>
       </c>
@@ -4098,7 +4098,7 @@
       <c r="AR15" s="16"/>
       <c r="AS15" s="16"/>
     </row>
-    <row r="16" spans="1:45" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:45" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="18">
         <v>61</v>
       </c>
@@ -4180,7 +4180,7 @@
       <c r="AR16" s="16"/>
       <c r="AS16" s="16"/>
     </row>
-    <row r="17" spans="1:45" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:45" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18">
         <v>91</v>
       </c>
@@ -4262,7 +4262,7 @@
       <c r="AR17" s="16"/>
       <c r="AS17" s="16"/>
     </row>
-    <row r="18" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>100</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="19" spans="1:45" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:45" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="18">
         <v>122</v>
       </c>
@@ -4457,7 +4457,7 @@
       <c r="AR19" s="26"/>
       <c r="AS19" s="26"/>
     </row>
-    <row r="20" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>140</v>
       </c>
@@ -4520,7 +4520,7 @@
       <c r="AR20" s="16"/>
       <c r="AS20" s="16"/>
     </row>
-    <row r="21" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>146</v>
       </c>
@@ -4581,7 +4581,7 @@
       <c r="AR21" s="16"/>
       <c r="AS21" s="16"/>
     </row>
-    <row r="22" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>150</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="23" spans="1:45" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:45" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18">
         <v>152</v>
       </c>
@@ -4776,7 +4776,7 @@
       <c r="AR23" s="26"/>
       <c r="AS23" s="26"/>
     </row>
-    <row r="24" spans="1:45" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:45" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="18">
         <v>183</v>
       </c>
@@ -4858,7 +4858,7 @@
       <c r="AR24" s="26"/>
       <c r="AS24" s="26"/>
     </row>
-    <row r="25" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>200</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="26" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>212</v>
       </c>
@@ -5032,7 +5032,7 @@
       <c r="AR26" s="16"/>
       <c r="AS26" s="16"/>
     </row>
-    <row r="27" spans="1:45" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:45" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="18">
         <v>213</v>
       </c>
@@ -5114,7 +5114,7 @@
       <c r="AR27" s="16"/>
       <c r="AS27" s="16"/>
     </row>
-    <row r="28" spans="1:45" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:45" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="18">
         <v>244</v>
       </c>
@@ -5196,7 +5196,7 @@
       <c r="AR28" s="16"/>
       <c r="AS28" s="16"/>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>248</v>
       </c>
@@ -5257,7 +5257,7 @@
       <c r="AR29" s="16"/>
       <c r="AS29" s="16"/>
     </row>
-    <row r="30" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>250</v>
       </c>
@@ -5318,7 +5318,7 @@
       <c r="AR30" s="16"/>
       <c r="AS30" s="16"/>
     </row>
-    <row r="31" spans="1:45" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:45" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="18">
         <v>274</v>
       </c>
@@ -5400,7 +5400,7 @@
       <c r="AR31" s="16"/>
       <c r="AS31" s="16"/>
     </row>
-    <row r="32" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>300</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="33" spans="1:45" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:45" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="18">
         <v>305</v>
       </c>
@@ -5594,7 +5594,7 @@
       <c r="AR33" s="26"/>
       <c r="AS33" s="26"/>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>329</v>
       </c>
@@ -5650,7 +5650,7 @@
       <c r="AR34" s="16"/>
       <c r="AS34" s="16"/>
     </row>
-    <row r="35" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>350</v>
       </c>
@@ -5706,7 +5706,7 @@
       <c r="AR35" s="16"/>
       <c r="AS35" s="16"/>
     </row>
-    <row r="36" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>400</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>402</v>
       </c>
@@ -5870,7 +5870,7 @@
       <c r="AR37" s="16"/>
       <c r="AS37" s="16"/>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>421</v>
       </c>
@@ -5926,7 +5926,7 @@
       <c r="AR38" s="16"/>
       <c r="AS38" s="16"/>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>450</v>
       </c>
@@ -5982,7 +5982,7 @@
       <c r="AR39" s="16"/>
       <c r="AS39" s="16"/>
     </row>
-    <row r="40" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>487</v>
       </c>
@@ -6038,7 +6038,7 @@
       <c r="AR40" s="16"/>
       <c r="AS40" s="16"/>
     </row>
-    <row r="41" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>500</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="42" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>560</v>
       </c>
@@ -6202,7 +6202,7 @@
       <c r="AR42" s="16"/>
       <c r="AS42" s="16"/>
     </row>
-    <row r="43" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>600</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>627</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>628</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>715</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>779</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>782</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>877</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>999</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>1003</v>
       </c>
@@ -6575,50 +6575,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
       <c r="AA52" s="19"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
@@ -6626,7 +6626,7 @@
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
@@ -6634,7 +6634,7 @@
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
@@ -6643,7 +6643,7 @@
       <c r="G61" s="15"/>
       <c r="J61" s="18"/>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
       <c r="E62" s="18"/>
@@ -6651,21 +6651,21 @@
       <c r="G62" s="15"/>
       <c r="J62" s="18"/>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
       <c r="D63" s="15"/>
       <c r="E63" s="18"/>
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
       <c r="J63" s="18"/>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
       <c r="D64" s="15"/>
       <c r="E64" s="18"/>
       <c r="F64" s="15"/>
       <c r="G64" s="15"/>
       <c r="J64" s="18"/>
     </row>
-    <row r="65" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D65" s="15"/>
       <c r="E65" s="18"/>
       <c r="F65" s="15"/>
@@ -6675,17 +6675,17 @@
       <c r="R65" s="10"/>
       <c r="S65" s="10"/>
     </row>
-    <row r="66" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D66" s="15"/>
       <c r="E66" s="18"/>
       <c r="F66" s="15"/>
       <c r="G66" s="15"/>
       <c r="J66" s="18"/>
     </row>
-    <row r="67" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:19" x14ac:dyDescent="0.3">
       <c r="J67" s="18"/>
     </row>
-    <row r="68" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:19" x14ac:dyDescent="0.3">
       <c r="J68" s="18"/>
     </row>
   </sheetData>
@@ -6702,30 +6702,30 @@
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="12" style="18" customWidth="1"/>
-    <col min="20" max="22" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="43" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="43" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>25</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:43" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>27</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:43" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>29</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="4" spans="1:43" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>30</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:43" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>31</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:43" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>58</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:43" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:43" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="X8" s="20"/>
       <c r="Y8" s="20"/>
       <c r="AA8" s="20"/>
@@ -7644,7 +7644,7 @@
       <c r="AP8" s="20"/>
       <c r="AQ8" s="20"/>
     </row>
-    <row r="9" spans="1:43" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="44" t="s">
         <v>103</v>
       </c>
@@ -7673,7 +7673,7 @@
       <c r="AP9" s="20"/>
       <c r="AQ9" s="20"/>
     </row>
-    <row r="10" spans="1:43" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="39"/>
       <c r="C10" s="19" t="s">
         <v>99</v>
@@ -7706,7 +7706,7 @@
       <c r="AP10" s="20"/>
       <c r="AQ10" s="20"/>
     </row>
-    <row r="11" spans="1:43" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="39"/>
       <c r="C11" s="19" t="s">
         <v>101</v>
@@ -7737,7 +7737,7 @@
       <c r="AP11" s="20"/>
       <c r="AQ11" s="20"/>
     </row>
-    <row r="12" spans="1:43" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="39"/>
       <c r="C12" s="19">
         <v>2001</v>
@@ -7768,7 +7768,7 @@
       <c r="AP12" s="20"/>
       <c r="AQ12" s="20"/>
     </row>
-    <row r="13" spans="1:43" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="39"/>
       <c r="C13" s="19">
         <v>2006</v>
@@ -7799,7 +7799,7 @@
       <c r="AP13" s="20"/>
       <c r="AQ13" s="20"/>
     </row>
-    <row r="14" spans="1:43" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="39"/>
       <c r="C14" s="19">
         <v>2015</v>
@@ -7831,7 +7831,7 @@
       <c r="AP14" s="20"/>
       <c r="AQ14" s="20"/>
     </row>
-    <row r="15" spans="1:43" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="39"/>
       <c r="C15" s="19">
         <v>2018</v>
@@ -7863,7 +7863,7 @@
       <c r="AP15" s="20"/>
       <c r="AQ15" s="20"/>
     </row>
-    <row r="16" spans="1:43" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:43" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="41"/>
       <c r="C16" s="42">
         <v>2021</v>
@@ -7895,12 +7895,12 @@
       <c r="AP16" s="20"/>
       <c r="AQ16" s="20"/>
     </row>
-    <row r="18" spans="1:47" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="59" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -8028,7 +8028,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:47" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -8197,7 +8197,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -8370,7 +8370,7 @@
       <c r="AT21" s="18"/>
       <c r="AU21" s="18"/>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>94</v>
       </c>
@@ -8543,24 +8543,24 @@
       <c r="AT22" s="18"/>
       <c r="AU22" s="18"/>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A24" s="59"/>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
       <c r="E28" s="18"/>
     </row>
-    <row r="33" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E33" s="18"/>
     </row>
-    <row r="36" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:21" x14ac:dyDescent="0.3">
       <c r="T36" s="18"/>
       <c r="U36" s="18"/>
     </row>
-    <row r="37" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:21" x14ac:dyDescent="0.3">
       <c r="T37" s="18"/>
       <c r="U37" s="18"/>
     </row>
-    <row r="38" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:21" x14ac:dyDescent="0.3">
       <c r="T38" s="18"/>
       <c r="U38" s="18"/>
     </row>
@@ -8578,33 +8578,33 @@
       <selection pane="bottomLeft" activeCell="A47" sqref="A47:XFD49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="18"/>
-    <col min="2" max="2" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="18"/>
+    <col min="2" max="2" width="10.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.33203125" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="9.140625" style="18"/>
-    <col min="16" max="16" width="13.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9.109375" style="18"/>
+    <col min="16" max="16" width="13.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.109375" style="18" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="12" style="18" customWidth="1"/>
-    <col min="20" max="24" width="9.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="9.28515625" style="82" customWidth="1"/>
-    <col min="27" max="27" width="11.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="30" max="45" width="9.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="46" max="16384" width="9.140625" style="18"/>
+    <col min="20" max="24" width="9.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="9.33203125" style="82" customWidth="1"/>
+    <col min="27" max="27" width="11.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="30" max="45" width="9.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="46" max="16384" width="9.109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>25</v>
       </c>
@@ -8741,7 +8741,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>27</v>
       </c>
@@ -8875,7 +8875,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>29</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>30</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>31</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>58</v>
       </c>
@@ -9395,7 +9395,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>59</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="X8" s="20"/>
       <c r="Y8" s="20"/>
       <c r="Z8" s="20"/>
@@ -9547,7 +9547,7 @@
       <c r="AR8" s="20"/>
       <c r="AS8" s="20"/>
     </row>
-    <row r="9" spans="1:45" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="60" t="s">
         <v>110</v>
       </c>
@@ -9573,32 +9573,32 @@
       <c r="AR9" s="62"/>
       <c r="AS9" s="62"/>
     </row>
-    <row r="10" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="63" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="65" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="65" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="65" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="65" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:45" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="69" t="s">
         <v>104</v>
       </c>
@@ -9745,7 +9745,7 @@
         <v>3.0466666666666669</v>
       </c>
     </row>
-    <row r="16" spans="1:45" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="71" t="s">
         <v>29</v>
       </c>
@@ -9914,7 +9914,7 @@
         <v>658.46820000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:45" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="71" t="s">
         <v>30</v>
       </c>
@@ -10062,7 +10062,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:45" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="71" t="s">
         <v>31</v>
       </c>
@@ -10210,24 +10210,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:45" s="68" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:45" s="68" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="67"/>
     </row>
-    <row r="21" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:45" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:45" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="60" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="63" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:45" s="64" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:45" s="64" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="66"/>
     </row>
-    <row r="25" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="66"/>
       <c r="C25" s="74" t="s">
         <v>103</v>
@@ -10238,7 +10238,7 @@
       <c r="G25" s="61"/>
       <c r="H25" s="75"/>
     </row>
-    <row r="26" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="66"/>
       <c r="C26" s="66"/>
       <c r="D26" s="64" t="s">
@@ -10252,7 +10252,7 @@
       </c>
       <c r="H26" s="76"/>
     </row>
-    <row r="27" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="66"/>
       <c r="C27" s="66"/>
       <c r="D27" s="64" t="s">
@@ -10260,7 +10260,7 @@
       </c>
       <c r="H27" s="76"/>
     </row>
-    <row r="28" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="66"/>
       <c r="C28" s="66"/>
       <c r="D28" s="64">
@@ -10272,7 +10272,7 @@
       </c>
       <c r="H28" s="76"/>
     </row>
-    <row r="29" spans="1:45" s="64" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:45" s="64" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="66"/>
       <c r="C29" s="67"/>
       <c r="D29" s="77" t="s">
@@ -10283,10 +10283,10 @@
       <c r="G29" s="68"/>
       <c r="H29" s="77"/>
     </row>
-    <row r="30" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="66"/>
     </row>
-    <row r="31" spans="1:45" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:45" s="78" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="78" t="s">
         <v>27</v>
       </c>
@@ -10420,7 +10420,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:45" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:45" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="71" t="s">
         <v>29</v>
       </c>
@@ -10595,7 +10595,7 @@
         <v>658.46820000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:45" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:45" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="71" t="s">
         <v>30</v>
       </c>
@@ -10771,7 +10771,7 @@
         <v>493.85115000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:45" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:45" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="71" t="s">
         <v>94</v>
       </c>
@@ -10947,24 +10947,24 @@
         <v>823.08525000000009</v>
       </c>
     </row>
-    <row r="35" spans="1:45" s="68" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:45" s="68" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="67"/>
     </row>
-    <row r="36" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:45" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:45" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="60" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="38" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="63" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="39" spans="1:45" s="64" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:45" s="64" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="66"/>
     </row>
-    <row r="40" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="66"/>
       <c r="C40" s="60" t="s">
         <v>172</v>
@@ -10975,7 +10975,7 @@
       <c r="G40" s="61"/>
       <c r="H40" s="75"/>
     </row>
-    <row r="41" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="66"/>
       <c r="C41" s="66" t="s">
         <v>173</v>
@@ -10985,7 +10985,7 @@
       </c>
       <c r="H41" s="76"/>
     </row>
-    <row r="42" spans="1:45" s="64" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:45" s="64" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="66"/>
       <c r="C42" s="67"/>
       <c r="D42" s="68"/>
@@ -10994,10 +10994,10 @@
       <c r="G42" s="68"/>
       <c r="H42" s="77"/>
     </row>
-    <row r="43" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="66"/>
     </row>
-    <row r="44" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="66" t="s">
         <v>174</v>
       </c>
@@ -11131,10 +11131,10 @@
         <v>178</v>
       </c>
     </row>
-    <row r="45" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="66"/>
     </row>
-    <row r="46" spans="1:45" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:45" s="78" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="91" t="str">
         <f>A31</f>
         <v>Unit</v>
@@ -11312,7 +11312,7 @@
         <v>euro/m2</v>
       </c>
     </row>
-    <row r="47" spans="1:45" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:45" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="92" t="str">
         <f t="shared" ref="A47" si="17">A32</f>
         <v>MaxDam</v>
@@ -11494,7 +11494,7 @@
         <v>658.46820000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:45" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:45" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="92" t="str">
         <f t="shared" ref="A48" si="19">A33</f>
         <v>LowerDam</v>
@@ -11676,7 +11676,7 @@
         <v>493.85115000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:45" s="93" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:45" s="93" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="92" t="str">
         <f>A34</f>
         <v>Upperdam</v>
@@ -11858,7 +11858,7 @@
         <v>823.08525000000009</v>
       </c>
     </row>
-    <row r="50" spans="1:45" s="68" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:45" s="68" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="67"/>
     </row>
   </sheetData>
@@ -11876,13 +11876,13 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="18"/>
+    <col min="1" max="1" width="9.109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="44" t="s">
         <v>70</v>
       </c>
@@ -11893,7 +11893,7 @@
       <c r="G2" s="37"/>
       <c r="H2" s="38"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="39"/>
       <c r="C3" s="19" t="s">
         <v>61</v>
@@ -11906,7 +11906,7 @@
       <c r="G3" s="19"/>
       <c r="H3" s="40"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="39" t="s">
         <v>66</v>
       </c>
@@ -11923,7 +11923,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="40"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="39" t="s">
         <v>67</v>
       </c>
@@ -11940,7 +11940,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="40"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="39" t="s">
         <v>68</v>
       </c>
@@ -11962,7 +11962,7 @@
       </c>
       <c r="H6" s="40"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="39"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
@@ -11971,7 +11971,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="40"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="39"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -11980,7 +11980,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="40"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="39" t="s">
         <v>64</v>
       </c>
@@ -11991,7 +11991,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="40"/>
     </row>
-    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="41"/>
       <c r="C10" s="42"/>
       <c r="D10" s="42"/>
@@ -12000,8 +12000,8 @@
       <c r="G10" s="42"/>
       <c r="H10" s="43"/>
     </row>
-    <row r="13" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="44" t="s">
         <v>65</v>
       </c>
@@ -12016,7 +12016,7 @@
       <c r="K14" s="37"/>
       <c r="L14" s="38"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="39"/>
       <c r="C15" s="19" t="s">
         <v>71</v>
@@ -12041,7 +12041,7 @@
       <c r="K15" s="19"/>
       <c r="L15" s="40"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="39" t="s">
         <v>66</v>
       </c>
@@ -12074,7 +12074,7 @@
       <c r="K16" s="19"/>
       <c r="L16" s="40"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="39" t="s">
         <v>67</v>
       </c>
@@ -12112,7 +12112,7 @@
       </c>
       <c r="L17" s="40"/>
     </row>
-    <row r="18" spans="2:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="39" t="s">
         <v>69</v>
       </c>
@@ -12150,7 +12150,7 @@
       </c>
       <c r="L18" s="40"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="39" t="s">
         <v>68</v>
       </c>
@@ -12188,7 +12188,7 @@
       </c>
       <c r="L19" s="40"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="39"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -12201,7 +12201,7 @@
       <c r="K20" s="19"/>
       <c r="L20" s="40"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="39"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -12214,7 +12214,7 @@
       <c r="K21" s="19"/>
       <c r="L21" s="40"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="39" t="s">
         <v>64</v>
       </c>
@@ -12229,7 +12229,7 @@
       <c r="K22" s="19"/>
       <c r="L22" s="40"/>
     </row>
-    <row r="23" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="41"/>
       <c r="C23" s="42"/>
       <c r="D23" s="42"/>
@@ -12256,12 +12256,12 @@
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -12269,7 +12269,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1998</v>
       </c>
@@ -12280,7 +12280,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -12304,7 +12304,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -12317,7 +12317,7 @@
       <c r="L5" s="84"/>
       <c r="M5" s="84"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -12330,7 +12330,7 @@
       <c r="L6" s="84"/>
       <c r="M6" s="84"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.5</v>
       </c>
@@ -12343,7 +12343,7 @@
       <c r="L7" s="84"/>
       <c r="M7" s="84"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -12356,7 +12356,7 @@
       <c r="L8" s="84"/>
       <c r="M8" s="84"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1.5</v>
       </c>
@@ -12369,7 +12369,7 @@
       <c r="L9" s="84"/>
       <c r="M9" s="84"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -12382,7 +12382,7 @@
       <c r="L10" s="84"/>
       <c r="M10" s="84"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -12395,7 +12395,7 @@
       <c r="L11" s="84"/>
       <c r="M11" s="84"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4</v>
       </c>
@@ -12408,7 +12408,7 @@
       <c r="L12" s="84"/>
       <c r="M12" s="84"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
@@ -12421,7 +12421,7 @@
       <c r="L13" s="84"/>
       <c r="M13" s="84"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>6</v>
       </c>
@@ -12434,17 +12434,17 @@
       <c r="L14" s="84"/>
       <c r="M14" s="84"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K15" s="84"/>
       <c r="L15" s="84"/>
       <c r="M15" s="84"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K16" s="84"/>
       <c r="L16" s="84"/>
       <c r="M16" s="84"/>
     </row>
-    <row r="17" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="11:13" x14ac:dyDescent="0.3">
       <c r="K17" s="84"/>
       <c r="L17" s="84"/>
       <c r="M17" s="84"/>
@@ -12464,16 +12464,16 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>119</v>
       </c>
@@ -12484,12 +12484,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="83" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>120</v>
       </c>
@@ -12500,7 +12500,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="82" t="s">
         <v>129</v>
       </c>
@@ -12508,7 +12508,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>121</v>
       </c>
@@ -12537,7 +12537,7 @@
         <v>992.09536742754324</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="82" t="s">
         <v>122</v>
       </c>
@@ -12570,7 +12570,7 @@
         <v>1104.8334773624913</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>124</v>
       </c>
@@ -12595,7 +12595,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>128</v>
       </c>
@@ -12643,7 +12643,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>125</v>
       </c>
@@ -12668,12 +12668,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="83" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>136</v>
       </c>
@@ -12684,7 +12684,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>137</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>138</v>
       </c>
@@ -12706,7 +12706,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>141</v>
       </c>
@@ -12717,7 +12717,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>139</v>
       </c>
@@ -12763,7 +12763,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>140</v>
       </c>
@@ -12809,12 +12809,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:25" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="82" t="s">
         <v>159</v>
       </c>
@@ -12822,7 +12822,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="22" spans="1:25" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="82" t="s">
         <v>160</v>
       </c>
@@ -12830,8 +12830,8 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="23" spans="1:25" s="82" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" s="82" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>149</v>
       </c>
@@ -12842,7 +12842,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="J25" s="82" t="s">
         <v>167</v>
       </c>
@@ -12850,7 +12850,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="83" t="s">
         <v>151</v>
       </c>
@@ -12875,7 +12875,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:25" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="83"/>
       <c r="B27" s="82" t="s">
         <v>155</v>
@@ -12920,7 +12920,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>152</v>
       </c>
@@ -12978,7 +12978,7 @@
       </c>
       <c r="Y28" s="82"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>153</v>
       </c>
@@ -13037,7 +13037,7 @@
       <c r="X29" s="82"/>
       <c r="Y29" s="82"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>154</v>
       </c>
@@ -13096,7 +13096,7 @@
       <c r="X30" s="82"/>
       <c r="Y30" s="82"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="S31">
         <f>AVERAGE(S28:S30)</f>
         <v>11444.578803678598</v>
